--- a/data/all_html_data.xlsx
+++ b/data/all_html_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW14"/>
+  <dimension ref="A1:BW30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -813,37 +813,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[{'Date': '', 'Country': '', 'Name_of_place_of_premiere': ''}]</t>
+          <t>[{'Date': '08/2023', 'Country': 'Switzerland', 'Name_of_place_of_premiere': 'Locarno Film Festival'}]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[{'Date': '', 'Country': '', 'Name_of_Festival': ''}]</t>
+          <t>[{'Date': '11/2023', 'Country': 'Estonia', 'Name_of_Festival': 'PÖFF Shorts - Black Nights Film Festival'}, {'Date': '06/2024', 'Country': 'China', 'Name_of_Festival': 'Shanghai International Film Festival'}, {'Date': '10/2023', 'Country': 'Korea', 'Name_of_Festival': 'Bucheon International Animation Festival'}, {'Date': '11/2025', 'Country': 'Italy', 'Name_of_Festival': 'Reggio Film Festival'}]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[{'Date': '', 'Country': '', 'Festival_Section_of_Competition': ''}]</t>
+          <t>[{'Date': '09/2024', 'Country': 'Switzerland', 'Festival_Section_of_Competition': 'Fantoche International Animation Film Festival - NEW SWISS TALENT award'}]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>An imaginative and playful collage of images from the life of cows.</t>
+          <t>A mosaic of cow stories from around the world shows them as sensitive, complex creatures, blending humour and poetry to spark empathy and hope.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A mosaic of small stories from all over the world, in which cows experience positive and negative moments, depicts the life of an animal in a global world and its relationship with humans. The visually colourful images portray the cow as a sensitive creature worthy of admiration.</t>
+          <t>An imaginative and playful collage of images from the life of cows. A mosaic of small stories in which cows experience positive and negative moments, depicts the life of an animal in a global world and its relationship with humans. The visually colourful images portray the cow as a sensitive creature worthy of admiration.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>With my film I want to make a positive contribution to the current situation. I would like the film to be an impulse to reflect on the life of an animal - in this case a cow - to draw attention to the need to see each creature as a complex, living being, not just as part of our human economic industry. I work freely with facts. I collected these for about a year and a half from the media, books and narratives, gathering a lot of bizarre, common or biological facts about cows.</t>
+          <t>With my film, I aim to offer a positive contribution to the climate debate by encouraging reflection on the life of an animal—here, a cow—and the need to see every creature as a complex being, not just part of an economic system. Though based on facts I gathered over a year and a half, the film isn’t meant as radical or purely documentary. Using animated collage, I tell cow stories from around the world in a playful, distanced way, showing how a cow’s life can mirror the world itself.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Mezi Stromy (Among Trees), 2015', 'Neumím plavat (I Can’t Swim), 2016', 'Mukumů, 2017']</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -864,23 +864,27 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>without dialogues</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
+          <t>Without dialogue</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czech Republic, Switzerland</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>01.01.2023</t>
+          <t>23.05.2023</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>00:12:52</t>
+          <t>00:12:50</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr"/>
@@ -893,15 +897,19 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['animation', 'children']</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>animals, cow, envrionmental issues, humanity, ecology, humor</t>
+        </is>
+      </c>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>general audience</t>
+          <t>family</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr"/>
@@ -926,11 +934,7 @@
           <t>Peter Bräker</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>Pavla Baštanová</t>
-        </is>
-      </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr">
         <is>
           <t>Peter Bräker</t>
@@ -942,7 +946,11 @@
         </is>
       </c>
       <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>Pavla Baštanová is a Prague-based animator and illustrator. A graduate of the Academy of Arts, Architecture and Design, she debuted with Mukumů (2017), later published as a children’s book. Her films include Among Trees (2015) and I Can’t Swim (2016). She illustrates books and magazines, works with classical graphic techniques, and creates animated projects such as visuals for IFF Juniorfest. She also animated on The Crossing and The Falling Star. Nature and animals are central to her work.</t>
+        </is>
+      </c>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
@@ -962,23 +970,11 @@
       <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr">
-        <is>
-          <t>DCP</t>
-        </is>
-      </c>
+      <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>2K</t>
-        </is>
-      </c>
+      <c r="AX2" t="inlineStr"/>
       <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr">
-        <is>
-          <t>progressive (DCP, e-cinema, TV)</t>
-        </is>
-      </c>
+      <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr">
         <is>
           <t>25</t>
@@ -991,11 +987,7 @@
         </is>
       </c>
       <c r="BD2" t="inlineStr"/>
-      <c r="BE2" t="inlineStr">
-        <is>
-          <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
-        </is>
-      </c>
+      <c r="BE2" t="inlineStr"/>
       <c r="BF2" t="inlineStr"/>
       <c r="BG2" t="inlineStr">
         <is>
@@ -1005,25 +997,25 @@
       <c r="BH2" t="inlineStr"/>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>Mária Môťovská, MAUR film</t>
+          <t>Martin Vandas, Alena Vandasová, Mária Moťovská</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr"/>
       <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
+      <c r="BL2" t="inlineStr"/>
       <c r="BM2" t="inlineStr"/>
-      <c r="BN2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>MAUR Film</t>
+        </is>
+      </c>
       <c r="BO2" t="inlineStr"/>
       <c r="BP2" t="inlineStr"/>
       <c r="BQ2" t="inlineStr"/>
       <c r="BR2" t="inlineStr"/>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>Sereina Gabathuler, Dschoint Ventschr Filmproduktion,</t>
+          <t>Sereina Gabathuler, Dschoint Ventschr Filmproduktion</t>
         </is>
       </c>
       <c r="BT2" t="inlineStr"/>
@@ -1053,63 +1045,59 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Two small-town policemen are first on the scene of a mass shooting — and must act fast with hostages still inside.</t>
+          <t>A dramatic Baltic Sea legend rooted in Lithuanian mythology: the forbidden love between a sea goddess and a mortal defies even the gods.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A routine day for two small-town policemen, young Pavel and experienced Michal, is turned upside down when they become the first patrol to arrive at the scene of a mass shooting at a restaurant with hostages still inside.</t>
+          <t>When fisherman Kastytis hauls in a fateful catch, he stirs the ire of the gods — yet destiny leads him to Jūratė, the sea goddess who loves him beyond divine law. Their forbidden bond awakens Thunder’s wrath, shattering her amber palace, but not their love - from its tears, Baltic amber is born.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>I drew inspiration for First Patrol from a 2015 tragedy in the South Moravian town of Uherský Brod, Czech Republic – the country’s first mass shooting. The title reflects both the officers’ arrival as the first patrol and Czech society’s first encounter with such violence. My intention was never a reconstruction, but a fictional immersive journey that places us in the patrol car and uniform of the first responders, who are both the earliest witnesses to such horrors and, above all, human beings.</t>
+          <t>As a creator, I’m drawn to the fragility and power of love. In Amber Tale, the sea goddess’s devotion to a mortal embodies this paradox: her sacrifice, transforming into amber to protect him, is both defeat and transcendence. The film’s visual language reflects amber’s warmth, transparency, and texture, like viewing ancient jewelry under magnification — revealing trapped light, emotion, time, and myth.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['• První hlídka / First Patrol (2025), 18 mins, police drama', '• Návštěvník / Visitor (2025), 20 mins, mysterious drama with horror elements', '• Cirkus / Cirque (2025), 5 mins, drama, 35mm colour film', '• Na kopci / On That Hill (2024), 3 mins, documentary portrait, 35mm black&amp;white film', '• Doprovázení / It Can Be Any Day (2023), 28 mins, family drama', 'Finalist for the Magnesia Award for Best Student Film of 2023', '• Růžička ve tmě / Rose in the Dark (2022), 10 mins, psychological drama, thriller', 'Panorama EnergaCAMERIMAGE 2022', '• Sen / Dream (2022), 5 mins, parable, 16mm colour film', '• 2-3 minuty / Two to Three Minutes (2021), 11 mins, drama', '• Konstruktér / The Constructor (2020), 8 mins, documentary portrait', '• Vyhnání / Expulsion (2019), 10 mins, historical drama, 16mm colour film', '• Kosmonaut / Cosmonaut (2019), 7 mins, children drama']</t>
+          <t>['Kaukai (Running Lights), 2017']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>first_patrol.html</t>
+          <t>amber_tale.html</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>První hlídka</t>
+          <t>Amber Tale</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>First patrol</t>
+          <t>Amber Tale</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Czech</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
+          <t>without dialogue</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>26. 01. 2026</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>00:18:12</t>
+          <t>00:12:30</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr"/>
@@ -1122,97 +1110,89 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>['drama', 'crime', 'psychological']</t>
+          <t>['animation', 'tales', 'poetic']</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr">
         <is>
-          <t>first responders, police work, mass shooting, true crime</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr"/>
+          <t>legend, mythology, love, amber, destiny, goddess, sea, fisherman</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>12+</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Vojtěch Konečný</t>
+          <t>Ged Sia</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>Jan Dvořáček, Vojtěch Konečný</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Filip Hájek</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>Enis Saraçi</t>
-        </is>
-      </c>
+          <t>Rita Domonyi, Ged Sia</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>Jan Strnad</t>
+          <t>Julius Grigelionis</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>Anna Machátová</t>
+          <t>Šarūnas Mikulskis</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>Tomáš Borl</t>
+          <t>Domas Strupinskas</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>['František Beleš', 'Pavel Řezníček']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>03.07.1995</t>
+          <t>3 May 1979</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>Vojtěch Konečný is a Czech writer-director. He is finishing the MA film directing course at FAMU. He graduated from University of the Arts London, BA (Hons) Film and TV course. He is one of the founders of the film production company nukleon frame. His short film Rose in the Dark (2022) premiered at the 30th EnergaCAMERIMAGE IFF in Poland and his short movie It Can Be Any Day (2023) was the finalist for Magnesia Award at the film awards Czech Lions for Best Student Film of 2023.</t>
+          <t>Ged Sia (Gediminas Šiaulys) is an award-winning Lithuanian director, visual artist, and animator. He is the only creator in Lithuania to have received all three top national creative awards —the Golden Stage Cross, the Silver Crane, and the Golden Arrow. His works and interviews have been published in major international art and design magazines. In 2007, Ged Sia’s animated film Kaukai won key national and international awards,and he was the first Lithuanian artist to win the Young Guns award from the Art Directors Club in New York.</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>Sony</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>Sony Venice, lenses: PANAVISION G SERIES ANAMORPHICS</t>
-        </is>
-      </c>
+          <t>3D CGI</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr"/>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>3D computer</t>
+        </is>
+      </c>
       <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>Adobe Premiere Pro</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>Protools</t>
-        </is>
-      </c>
+          <t>Maya</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="inlineStr">
@@ -1220,22 +1200,14 @@
           <t>DCP</t>
         </is>
       </c>
-      <c r="AW3" t="inlineStr">
-        <is>
-          <t>ProRes</t>
-        </is>
-      </c>
+      <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>4k</t>
+          <t>2K</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr">
-        <is>
-          <t>progressive (DCP, e-cinema, TV)</t>
-        </is>
-      </c>
+      <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr">
         <is>
           <t>24</t>
@@ -1244,24 +1216,16 @@
       <c r="BB3" t="inlineStr"/>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>2.00 (Netflix, Apple TV+, RED, Arri...)</t>
-        </is>
-      </c>
-      <c r="BD3" t="inlineStr">
-        <is>
-          <t>DCP is S-200 (scope 2:1)</t>
-        </is>
-      </c>
+          <t>1.78 (16:9)</t>
+        </is>
+      </c>
+      <c r="BD3" t="inlineStr"/>
       <c r="BE3" t="inlineStr">
         <is>
           <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
         </is>
       </c>
-      <c r="BF3" t="inlineStr">
-        <is>
-          <t>or stereo for screeners</t>
-        </is>
-      </c>
+      <c r="BF3" t="inlineStr"/>
       <c r="BG3" t="inlineStr">
         <is>
           <t>Colour</t>
@@ -1270,7 +1234,7 @@
       <c r="BH3" t="inlineStr"/>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>Adéla Konečná</t>
+          <t>Laurynas Kublickas, Šarūnas Mikulskis, Dagne Vildžiūnaitė</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr"/>
@@ -1279,34 +1243,26 @@
       <c r="BM3" t="inlineStr"/>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>nukleon frame</t>
+          <t>BroProduction, UAB ”Kitchen department”</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>Davidkova 29</t>
+          <t>Palangos g.16-2</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>180 00, Prague 8</t>
+          <t>92281, Klaipėda</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="BR3" t="inlineStr">
-        <is>
-          <t>https://nukleonframe.cz/en/</t>
-        </is>
-      </c>
-      <c r="BS3" t="inlineStr">
-        <is>
-          <t>FAMU, Czech Television, Lonely Production</t>
-        </is>
-      </c>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
       <c r="BT3" t="inlineStr"/>
       <c r="BU3" t="inlineStr"/>
       <c r="BV3" t="inlineStr"/>
@@ -1315,7 +1271,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[{'Date': '1.4.2025', 'Country': 'Argentina', 'Name_of_place_of_premiere': 'BAFICI - Buenos Aires International Festival of Independent Cinema'}]</t>
+          <t>[{'Date': '', 'Country': '', 'Name_of_place_of_premiere': ''}]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1330,63 +1286,59 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>In a world ruled by a mysterious telephone, power shifts from a distant force to the people themselves—revealing how the oppressed become oppressors.</t>
+          <t>Brave kids battling cancer turn hospital days into imaginative adventures, showing that even bald heroes can laugh, play, and stay strong.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Late at night in a shabby office, workers are stuck to the ceiling by their hats, blindly doing their jobs. Oblivious to the absurdity, they vanish one by one when an old phone rings. Only Hatker dares to face reality — turning their Kafkaesque world upside down.</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Hatker explores the theme of power, symbolized by a telephone dictating behavior from afar. As the story unfolds, power proves decentralized—internalized and reproduced by individuals themselves. Inspired by my own experience in a corporate office, the film uses the metaphor of “hats” to represent the roles we adopt until the protagonist chooses to break free by taking his off.</t>
-        </is>
-      </c>
+          <t>Baldies – What About My Hair? is an animated short about a fearless group of kids battling cancer who meet in hospital and turn their fight into an adventure. Using imagination, humour, and gentle metaphors, the film shows that a kid with cancer is still a kid—ready to laugh, play, and prove that being bald is cool.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['Epirenov, 2020', 'Hatker, 2025']</t>
+          <t>['Babls (Bubbles), 2013']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>hatker.html</t>
+          <t>baldies_what_about_my_hair.html</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Hatker</t>
+          <t>Plešouni</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Hatker</t>
+          <t>Baldies - What About My Hair?</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Without dialogue</t>
+          <t>Czech / English</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>English</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>20. 01. 2026</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>00:07:33</t>
+          <t>00:09:47</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr"/>
@@ -1399,47 +1351,55 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>['animation', 'absurd']</t>
+          <t>['animation', 'children', 'comedy', 'fairytale']</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr">
         <is>
-          <t>hat, power, telephone, office, control, work, Kafka</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
+          <t>childhood, illness, medicine, friendship, humour</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>6+</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>general audience</t>
+        </is>
+      </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Alejandro Ariel Martin</t>
+          <t>Eliška Soffer Podzimek</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>Alejandro Ariel Martin, Florencia Pilotti</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Alejandro Ariel Martin</t>
-        </is>
-      </c>
+          <t>Steen Agro</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>Alejandro Ariel Martin</t>
+          <t>Georgy Barklaya</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>Santiago Zecca</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr"/>
+          <t>Jan Rádr, Jakub Johánek, Lukáš Tvrdoň</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Eliška Soffer Podzimek</t>
+        </is>
+      </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>Hermes Scipioni</t>
+          <t>Marek Doubrava, Jakub Johánek</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1447,19 +1407,18 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>27 March 1992</t>
+        </is>
+      </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>Alejandro Ariel Martin is an Argentinian Film Director. He has a degree in Social Communication from the UNR and a postgraduate degree in Creative Communication from the Autonomous University of Barcelona.
-He is the director and scriptwriter of the short film “Epirenov” (2020) and “Hatker” (2025).</t>
+          <t>Czech multimedia artist Eliška Soffer Podzimek uses humour, technical skill and distinctive design to build an international career as an animator, illustrator and digital creator. Combining live-action, video and hand-drawn animation, she has made award-winning films, music videos and campaigns for brands like Vogue and Jamie Oliver. Now back in Prague, her experience as a teenage cancer survivor inspired the “Baldies” project supporting sick kids.</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>DSLR/DSLM</t>
-        </is>
-      </c>
+      <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr">
@@ -1469,44 +1428,28 @@
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>puppet</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr"/>
+          <t>3D computer</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>2D + 3D animation</t>
+        </is>
+      </c>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
       <c r="AT4" t="inlineStr"/>
       <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="inlineStr">
-        <is>
-          <t>DCP</t>
-        </is>
-      </c>
+      <c r="AV4" t="inlineStr"/>
       <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr">
-        <is>
-          <t>4k</t>
-        </is>
-      </c>
+      <c r="AX4" t="inlineStr"/>
       <c r="AY4" t="inlineStr"/>
       <c r="AZ4" t="inlineStr"/>
-      <c r="BA4" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
+      <c r="BA4" t="inlineStr"/>
       <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr">
-        <is>
-          <t>1.85 ("flat format")</t>
-        </is>
-      </c>
+      <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
-      <c r="BE4" t="inlineStr">
-        <is>
-          <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
-        </is>
-      </c>
+      <c r="BE4" t="inlineStr"/>
       <c r="BF4" t="inlineStr"/>
       <c r="BG4" t="inlineStr">
         <is>
@@ -1516,13 +1459,25 @@
       <c r="BH4" t="inlineStr"/>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>Alejandro Ariel Martin, Florencia Pilotti</t>
-        </is>
-      </c>
-      <c r="BJ4" t="inlineStr"/>
-      <c r="BK4" t="inlineStr"/>
+          <t>Oldrich Company s.r.o. (Jiří Sádek, Jindřich Trčka)</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>Badeniho 290/1</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>160 00 Praha 6</t>
+        </is>
+      </c>
       <c r="BL4" t="inlineStr"/>
-      <c r="BM4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>oldrich.rocks</t>
+        </is>
+      </c>
       <c r="BN4" t="inlineStr"/>
       <c r="BO4" t="inlineStr"/>
       <c r="BP4" t="inlineStr"/>
@@ -1542,7 +1497,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[{'Date': 'May 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'Anifilm'}, {'Date': 'May 2025', 'Country': 'Germany', 'Name_of_Festival': 'Neisse Film Festival'}, {'Date': 'June 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'ZLÍN FILM FESTIVAL – International Film Festival for Children and Youth'}]</t>
+          <t>[{'Date': '', 'Country': '', 'Name_of_Festival': ''}]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1550,65 +1505,53 @@
           <t>[{'Date': '', 'Country': '', 'Festival_Section_of_Competition': ''}]</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>An auteur short animated documentary exploring the inner feelings of home. What does home mean to each of us?</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>An auteur film on the theme of inner feelings of home. What is home for each of us? Where is this place located? What is it connected to? Is home a specific place, or is home within us? A journey around the world in search of that "home" - the place where you feel you belong. Where you are safe and among your own.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>I really liked studying and living in the Czech Republic, but throughout my studies I kept thinking about my home, about my family that I left behind in Belarus. Being a foreigner was not as easy as I thought. I had to go through many hardships, but the hardest was homesickness and family. This feeling tormented me, the thoughts didn't want to leave my head and I decided to release these emotions in my work.</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['Jak vám mohu pomoci? [How can I help you?] (2022) - one episode from the eight-part Czech television animated series']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>home.html</t>
+          <t>cheese.html</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Domov</t>
+          <t>Il Formaggio</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Cheese</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Belarussian</t>
+          <t>italian</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>English, Czech</t>
+          <t>english</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Februrary 2025</t>
+          <t>O1.01.2022</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>00:05:45</t>
+          <t>00:11:28</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
@@ -1621,64 +1564,40 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>['animation', 'documentary', 'experimental']</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr"/>
+          <t>['animation', 'experimental']</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>opera</t>
+        </is>
+      </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>home, home sick, lyrical</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>15+</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>general audience</t>
-        </is>
-      </c>
+          <t>cheese, cat, mouse, opera,</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Anastasiya Skarko</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>Anastasiya Skarko</t>
-        </is>
-      </c>
+          <t>Claudio Giusti</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>Miroslav Chaloupka</t>
-        </is>
-      </c>
+      <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>Yaraslau Dubashynski</t>
-        </is>
-      </c>
+      <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>05.09.1998</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>Anastasiya was born in Minsk, Belarus. Since 2018, she has worked as an art editor at the magazine of satire and humor "Vozhik". In 2020-2024 she studied animation at the Ladislav Sutnar Faculty of Design and Art at the University of West Bohemia in Pilsen.</t>
-        </is>
-      </c>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
@@ -1688,12 +1607,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>2D</t>
-        </is>
-      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>2D computer</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="inlineStr"/>
@@ -1703,7 +1622,11 @@
           <t>DCP</t>
         </is>
       </c>
-      <c r="AW5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>ProRes, h264</t>
+        </is>
+      </c>
       <c r="AX5" t="inlineStr">
         <is>
           <t>HD: 1920X1080</t>
@@ -1725,21 +1648,17 @@
       <c r="BD5" t="inlineStr"/>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
+          <t>Stereo (2.0, L+R)</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr"/>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>Black &amp; White</t>
+          <t>Colour</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr"/>
-      <c r="BI5" t="inlineStr">
-        <is>
-          <t>University of West Bohemia</t>
-        </is>
-      </c>
+      <c r="BI5" t="inlineStr"/>
       <c r="BJ5" t="inlineStr"/>
       <c r="BK5" t="inlineStr"/>
       <c r="BL5" t="inlineStr"/>
@@ -1749,11 +1668,7 @@
       <c r="BP5" t="inlineStr"/>
       <c r="BQ5" t="inlineStr"/>
       <c r="BR5" t="inlineStr"/>
-      <c r="BS5" t="inlineStr">
-        <is>
-          <t>MAUR FILM</t>
-        </is>
-      </c>
+      <c r="BS5" t="inlineStr"/>
       <c r="BT5" t="inlineStr"/>
       <c r="BU5" t="inlineStr"/>
       <c r="BV5" t="inlineStr"/>
@@ -1777,48 +1692,44 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A fallen minister and a naive dreamer are thrown together by chance. One surreal night forces them to face truth, ambition, and their deepest fears.</t>
+          <t>The thrilling story of a little boy in a housing estate, where even the world's greatest adventure can take place.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A disgraced justice minister meets an ambitious young woman on a delayed train to Prague. Their unlikely bond deepens over one surreal night filled with hidden lovers, unexpected truths, and a drunken dance of reckoning, as both confront ambition, loneliness, and the need for connection.</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Return explores the unraveling of a powerful woman after a political downfall. I'm drawn to layered characters and contradictions—especially women in power and how they’re judged differently than men. The film shifts tone and setting to reflect Patricie’s inner descent, using stylized visuals and dynamic camera work to mirror her instability, loneliness, and vulnerability. At its core, it’s about communication breakdown and the clash of ideals.</t>
-        </is>
-      </c>
+          <t>Concrete Jungle is a short animated film dealing with children's imagination and its boundlessness. When a neighbor drilling to the wall, who knows what the child is chasing at the sound he does not know and cannot classify.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['Příspěvek na bydlení (Housing allowance), 2024 - director', "Muž, který nemohl spát (The man who couldn't sleep), 2023 - screenwriter", 'Rozloučení, 2023 - screenwriter', 'auto.au.rum (all.about.rum), 2022 - director and screenwriter']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>return.html</t>
+          <t>concrete_jungle.html</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Návrat</t>
+          <t>Betonová džungle</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Return</t>
+          <t>The concrete jungle</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Czech</t>
+          <t>without dialogue</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>none</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1826,14 +1737,10 @@
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>00:24:48</t>
+          <t>00:07:35</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr"/>
@@ -1846,82 +1753,62 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>['drama', 'psychological']</t>
+          <t>['animation', 'adventure', 'fairytale']</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
-          <t>local politician, bad day, woman in distress</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>15+</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>adults</t>
-        </is>
-      </c>
+          <t>fantasy, adventure, jungle, road, sounds, housing estate, neighbor</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Lukáš Valíšek</t>
+          <t>Marie Urbánková</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>Lukáš Valíšek</t>
+          <t>Rudolf Král</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Marcela Mencelová, Vojtěch Adalbert Dvořák</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>Adéla Kelbichová</t>
-        </is>
-      </c>
+          <t>Jaroslav Fišer</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>Jakub Jedlička</t>
+          <t>Tomáš Kozelka</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>Tereza Thérová, Lucie Pangrácová</t>
+          <t>Marie Urbánková</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>Václav Chalupský</t>
+          <t>Miroslav Chaloupka</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>['Alena Štréblová (Tricia)', 'Alžběta Nováková (Laura)', 'Jindřiška Dudziaková (Veronika)', 'Jakub Jelínek (Marek)', 'Mikuláš Čížek (Andrej)']</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
+          <t>['Milda Frýdl: boy', 'Zbyšek Puntucek: aborigines']</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>Lukáš Valíšek is a screenwriting graduate and current directing student at FAMU. He has worked as a writer and script editor on numerous short films and is currently developing several feature-length projects. In his free time, he enjoys drawing and playing video games, and is passionate about experimenting with different forms of storytelling.</t>
+          <t>Marie Urbánková, 1995, Prague. First she studied scenography at the SUPŠ. Then, she continued her studies at the Prague UMPRUM, majoring in film and television graphics, where she is currently continuing her master's degree. She illustrates and collaborates with Raketa magazine, illustrated three books, and others are in the process!</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>HDCAM</t>
-        </is>
-      </c>
+      <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr">
@@ -1929,29 +1816,21 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>puppet</t>
+        </is>
+      </c>
       <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr"/>
       <c r="AU6" t="inlineStr"/>
-      <c r="AV6" t="inlineStr">
-        <is>
-          <t>Apple ProRes</t>
-        </is>
-      </c>
+      <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="inlineStr">
-        <is>
-          <t>4k</t>
-        </is>
-      </c>
+      <c r="AX6" t="inlineStr"/>
       <c r="AY6" t="inlineStr"/>
-      <c r="AZ6" t="inlineStr">
-        <is>
-          <t>progressive (DCP, e-cinema, TV)</t>
-        </is>
-      </c>
+      <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="inlineStr">
         <is>
           <t>25</t>
@@ -1966,7 +1845,7 @@
       <c r="BD6" t="inlineStr"/>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
+          <t>Stereo (2.0, L+R)</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr"/>
@@ -1976,93 +1855,129 @@
         </is>
       </c>
       <c r="BH6" t="inlineStr"/>
-      <c r="BI6" t="inlineStr">
-        <is>
-          <t>Barbora Podškubková</t>
-        </is>
-      </c>
+      <c r="BI6" t="inlineStr"/>
       <c r="BJ6" t="inlineStr"/>
       <c r="BK6" t="inlineStr"/>
       <c r="BL6" t="inlineStr"/>
       <c r="BM6" t="inlineStr"/>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>FAMU</t>
-        </is>
-      </c>
-      <c r="BO6" t="inlineStr"/>
-      <c r="BP6" t="inlineStr"/>
-      <c r="BQ6" t="inlineStr"/>
+          <t>FAMU - Film and TV School of the Academy of Performing Arts in Prague</t>
+        </is>
+      </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t>Smetanovo nábřeží 2</t>
+        </is>
+      </c>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>116 65, Prague 1</t>
+        </is>
+      </c>
+      <c r="BQ6" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
       <c r="BR6" t="inlineStr"/>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>Česká televize</t>
-        </is>
-      </c>
-      <c r="BT6" t="inlineStr"/>
-      <c r="BU6" t="inlineStr"/>
-      <c r="BV6" t="inlineStr"/>
+          <t>MAUR film</t>
+        </is>
+      </c>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>Revoluční 1403/28</t>
+        </is>
+      </c>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t>110 00 Praha 1</t>
+        </is>
+      </c>
+      <c r="BV6" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
       <c r="BW6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[{'Date': '', 'Country': '', 'Name_of_place_of_premiere': ''}]</t>
+          <t>[{'Date': '10 June 2019', 'Country': 'France', 'Name_of_place_of_premiere': 'Annecy International Animated Film Festival'}]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[{'Date': '', 'Country': '', 'Name_of_Festival': ''}]</t>
+          <t>[{'Date': 'September 2019', 'Country': 'Bulgaria', 'Name_of_Festival': 'World Festival of Animated Film Varna, The Best Student Film'}, {'Date': 'September 2019', 'Country': 'Albania', 'Name_of_Festival': 'Tirana International Film Festival, The Best Student Film'}, {'Date': '2019', 'Country': 'Hungary', 'Name_of_Festival': 'Anilogue International Animation Festival, Best Short Film'}, {'Date': 'November 2019', 'Country': 'Cyprus', 'Name_of_Festival': 'Cyprus International Film Festival, "Golden Aphrodite"'}, {'Date': 'December 2019', 'Country': 'Poland', 'Name_of_Festival': 'ISFF ZUBROFFKA, Best film in the EASTWARD WINDOW Competition and THE BEST ANIMATION'}, {'Date': '2020', 'Country': 'Spain', 'Name_of_Festival': 'Mecal Pro, second prize by the Animation Jury'}, {'Date': '2020', 'Country': 'USA', 'Name_of_Festival': 'Glasgow Short Film Festival, Audience Award for International Short Film'}, {'Date': '2020', 'Country': 'Germany', 'Name_of_Festival': 'NEISSE FILM FESTIVAL, Best Short Film'}, {'Date': '2020', 'Country': 'Japan', 'Name_of_Festival': 'Tokyo Anime Award Festival, Grand Prix Award'}]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[{'Date': '', 'Country': '', 'Festival_Section_of_Competition': ''}]</t>
+          <t>[{'Date': '2019', 'Country': 'USA', 'Festival_Section_of_Competition': 'The 46th Student Academy Award (Student OSCAR), the gold medal in International Animation film'}, {'Date': '2020', 'Country': 'USA', 'Festival_Section_of_Competition': 'The 92nd Academy Awards Nomination in the category The Best Short Animatied Film'}, {'Date': 'June 2019', 'Country': 'France', 'Festival_Section_of_Competition': 'Annecy International Animated Film Festival, Cristal for the Best Student Film, Young Jury award for the best Student film'}, {'Date': 'August 2019', 'Country': 'Australia', 'Festival_Section_of_Competition': 'Melbourne International Film Festival, City Post Award for Best Animation Short Film'}, {'Date': 'September 2019', 'Country': 'Switzerland', 'Festival_Section_of_Competition': 'Fantoche International Animation Film Festival, Best film of Fantoche'}, {'Date': 'October 2019', 'Country': 'South Korea', 'Festival_Section_of_Competition': 'Bucheon International Animation Festival BIAF, AniG‘s Choice and 1st Jury Prize'}, {'Date': 'November 2019', 'Country': 'USA', 'Festival_Section_of_Competition': 'Denver Film Festival, Marilyn Marsh Saint-Veltri Award for Best Student Animated Short Film'}, {'Date': 'November 2019', 'Country': 'Portugal', 'Festival_Section_of_Competition': 'Cinanima, International Student Film Competition Award'}, {'Date': 'November 2019', 'Country': 'Estonia', 'Festival_Section_of_Competition': 'PÖFF Shorts – Black Nights Film Festival, The winner at the New Talent competition'}, {'Date': 'January 2020', 'Country': 'USA', 'Festival_Section_of_Competition': 'Sundance Film Festival, Best Short Film'}, {'Date': 'Spring 2020', 'Country': 'USA', 'Festival_Section_of_Competition': 'New Jersey Film Festival, Best Animation'}, {'Date': '2020', 'Country': 'Germany', 'Festival_Section_of_Competition': 'Stuttgart Festival of Animated Film, Young talent award'}, {'Date': '2020', 'Country': 'Portugal', 'Festival_Section_of_Competition': 'Monstra, Best Student film from the Junior Jury, and Special Senior Jury'}, {'Date': '2020', 'Country': 'USA', 'Festival_Section_of_Competition': 'Palm Springs International Shortfest, The Best Student Animated short'}, {'Date': '2020', 'Country': '', 'Festival_Section_of_Competition': 'THE CILECT PRIZE 2020 for the best animated film'}, {'Date': '2020', 'Country': 'Japan', 'Festival_Section_of_Competition': 'Hiroshima International Animation Festival, Grand Prix'}, {'Date': '2020', 'Country': 'Chile', 'Festival_Section_of_Competition': 'Chilemonos, First place in the International School Short Film Competition'}, {'Date': '2020', 'Country': 'UK', 'Festival_Section_of_Competition': 'Cardiff Animation Festival, Audience award'}, {'Date': '2020', 'Country': 'Croatia', 'Festival_Section_of_Competition': 'Animafest Zagreb, Best film for children'}, {'Date': '2020', 'Country': 'Czech Republic', 'Festival_Section_of_Competition': 'Anifilm, Best Student film in the International competition, Best Student Czech Film, Best Czech Animated film'}]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Edgar Allan Poe: Into the Mountains of Madness.</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+          <t>A childhood misunderstanding between a father and daughter grows into years of silence, until time offers a fragile chance for closeness.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>As a child, a girl brings home an injured bird, hoping to share her feelings with her father. Absorbed by his own worries, he fails to notice her longing for understanding. The girl turns inward, and the unspoken hurt shapes their relationship over the years—until time offers a fragile chance for reconnection.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>My film explores the father-daughter relationship, deeply personal to me. To immerse viewers in memory, I used a handheld feel, close-ups, low depth of field, and motion for immediacy. I painted the puppets’ eyes directly, giving them life and an intense expression of their emotions.</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['Time Metallurgist (2024)', 'Místo (2020)', 'Vyčerpané Slunce [Exhausted sun] (2019)']</t>
+          <t>['Electra, 2023', "Praha očima cizinců (Prague: A foreigners' perspective), 2017", 'To Accept, 2017', 'Oáza (Oasis), 2017', 'V popelnici (In a Dumpster), 2017', 'Vítr správným směrem (Before the wind), 2016']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>snowblind.html</t>
+          <t>daughter.html</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>SnowBlind</t>
+          <t>Dcera</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>SnowBlind</t>
+          <t>Daughter</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>unintelligible language</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr"/>
+          <t>without dialogue</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>00:08:53</t>
+          <t>00:14:44</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr"/>
@@ -2075,50 +1990,82 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>['experimental']</t>
+          <t>['drama', 'puppet', 'animation']</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr">
         <is>
-          <t>Edgar Alan Poe, Lovecraft</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+          <t>childhood, father-daughter relationship, expressing emotions, parental love, guilt</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>general audience</t>
+        </is>
+      </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Tomáš Rampula</t>
+          <t>Daria Kashcheeva</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>Tomáš Rampula</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr"/>
+          <t>Daria Kashcheeva</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Daria Kashcheeva, Bargav Sridhar</t>
+        </is>
+      </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>Tomáš Rampula</t>
+          <t>Alexander Kashcheev</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>Alex Strapkova, Tomáš Rampula</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
+          <t>Daria Kashcheeva, Miroslav Chaloupka</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Daria Kashcheeva</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>Petr Vrba</t>
+        </is>
+      </c>
       <c r="AH7" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>1 April 1986</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>Independent filmmaker Daria Kashcheeva studied animation at FAMU. Her Bachelor’s puppet film Daughter (2019) premiered at Annecy, won a Student Academy Award, and collected prizes at over 100 festivals. Her acclaimed Master’s film Electra (2023) premiered at Cannes. She is now developing her feature debut.</t>
+        </is>
+      </c>
       <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>DSLR/DSLM</t>
+        </is>
+      </c>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr">
@@ -2126,15 +2073,27 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>puppet</t>
+        </is>
+      </c>
       <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>DCP</t>
+        </is>
+      </c>
       <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>4k</t>
+        </is>
+      </c>
       <c r="AY7" t="inlineStr"/>
       <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="inlineStr">
@@ -2143,31 +2102,47 @@
         </is>
       </c>
       <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>2.39 / 2.40 (modern "scope")</t>
+        </is>
+      </c>
       <c r="BD7" t="inlineStr"/>
-      <c r="BE7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
+        </is>
+      </c>
       <c r="BF7" t="inlineStr"/>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>Black &amp; White</t>
+          <t>Colour</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr"/>
-      <c r="BI7" t="inlineStr"/>
+      <c r="BI7" t="inlineStr">
+        <is>
+          <t>Zuzana Roháčová</t>
+        </is>
+      </c>
       <c r="BJ7" t="inlineStr"/>
       <c r="BK7" t="inlineStr"/>
       <c r="BL7" t="inlineStr"/>
       <c r="BM7" t="inlineStr"/>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>Ochi&amp;Ushi</t>
+          <t>FAMU</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr"/>
       <c r="BP7" t="inlineStr"/>
       <c r="BQ7" t="inlineStr"/>
       <c r="BR7" t="inlineStr"/>
-      <c r="BS7" t="inlineStr"/>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>Martin Vandas, Maurfilm</t>
+        </is>
+      </c>
       <c r="BT7" t="inlineStr"/>
       <c r="BU7" t="inlineStr"/>
       <c r="BV7" t="inlineStr"/>
@@ -2176,7 +2151,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[{'Date': '13. 6. 2025', 'Country': 'Germany', 'Name_of_place_of_premiere': 'die Seriale - International Series Festival Giessen'}]</t>
+          <t>[{'Date': '', 'Country': '', 'Name_of_place_of_premiere': ''}]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2191,55 +2166,67 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>In a cosmic contest to design life on a new planet, a visionary Evolution Manager and his sidekick face overwhelming odds in a battle of creation.</t>
+          <t>A short film about how hard it can sometimes be forgiving.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Soul Shift – a visually stunning and delightfully wacky animated series by Christian Franz Schmidt – follows Evolution Managers shaping life across the universe. When Dew Blue and Sunny-Yellow enter a cosmic contest, it spirals into a wild battle that tests not only their strategy, but their friendship too.</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>Two little girls are playing with a ball. But after a petty quarrel, they get angry with each other and take offense. Their umbrage makes them inflate like balloons, they fly all the way up to the clouds. Girls get stuck up there, with no idea how to get down and save their kitten stuck in the tree.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A person learns how to forgive all of his life, even though he encounters this concept early in his childhood. The saying“to forgive is divine”always rings true, even if it is sometimes difficult. And for small children, it is even more complicated, because they are just learning how to deal with their emotions. I am a mother of two little girls and I quickly found out how difficult it is sometimes, to explain basic behavioral patterns. That is why I decided to make this film.</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['The Zilla family has a picnic (2019)', 'A perfect day (2017)', "The most beautiful children's songs (2016) - web series", 'Durchfallmann - The rescue parachute (2015)', 'Rosi Romance (2015)', 'Durchfallmann - The chain carousel is out of control (2014)', 'A swan has a plan (2013)', 'Santa dares to go nuclear (2013)', 'Invageddon (2012) - web series', 'The claustro toad (2011)', 'Egg Nappers (2011)', 'The Christmas tree socialization project (2010)', 'Rome (2006)', 'The diarrhea man (2005)']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>soul_shift.html</t>
+          <t>don't_blow_it_up.html</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Soul Shift</t>
+          <t>Odpusť</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Soul Shift</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
+          <t>Don´t blow it up</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Gonflées</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>German, English</t>
+          <t>without dialogue</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>none</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr"/>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>14.2.2022</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>00:10:00</t>
+          <t>00:08:18</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
@@ -2252,51 +2239,47 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>['animation', 'sci-fi', 'comedy']</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>comics</t>
-        </is>
-      </c>
+          <t>['animation']</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
-          <t>evolution, universe, cosmic, fantasy</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>15+</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>general audience</t>
-        </is>
-      </c>
+          <t>animation, for kids, forgivness, education</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Christian Franz Schmidt</t>
+          <t>Alžbeta Mačáková Mišejková</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>Christian Franz Schmidt</t>
+          <t>Alžbeta Mačáková Mišejková</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Alexander Kashcheev, Lucie Hecht</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>Tomáš Kozelka</t>
+        </is>
+      </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>Christian Franz Schmidt</t>
+          <t>Alžbeta Mačáková Mišejková</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>Thomas Mehlhorn</t>
+          <t>Magdaléna Mišejková</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2307,7 +2290,7 @@
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>Christian Franz Schmidt studied animation at HFF Konrad Wolf Potsdam-Babelsberg. He was a pre-selection juror for the Stuttgart International Festival of Animated Film in 2013. From 2012–2019, he headed animation at a major media agency and has been working as a freelancer since 2012.</t>
+          <t>Alžbeta Mačáková Mišejková studied at art high school of Václav Hollar, where she continued with interactive animation studies.  Mačáková Mišejková is a graduate of animation at the FAMU in Prague. Currently, she is on maternity leave with two children.</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr"/>
@@ -2319,7 +2302,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>drawing on paper</t>
+        </is>
+      </c>
       <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
@@ -2330,11 +2317,23 @@
       <c r="AX8" t="inlineStr"/>
       <c r="AY8" t="inlineStr"/>
       <c r="AZ8" t="inlineStr"/>
-      <c r="BA8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
       <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>1.85 ("flat format")</t>
+        </is>
+      </c>
       <c r="BD8" t="inlineStr"/>
-      <c r="BE8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>Dolby Stereo (3.1, LCRS)</t>
+        </is>
+      </c>
       <c r="BF8" t="inlineStr"/>
       <c r="BG8" t="inlineStr">
         <is>
@@ -2342,39 +2341,63 @@
         </is>
       </c>
       <c r="BH8" t="inlineStr"/>
-      <c r="BI8" t="inlineStr">
-        <is>
-          <t>Thomas Schneider-Trumpp, Johann Frank, Wolfgang Heidrich</t>
-        </is>
-      </c>
+      <c r="BI8" t="inlineStr"/>
       <c r="BJ8" t="inlineStr"/>
       <c r="BK8" t="inlineStr"/>
       <c r="BL8" t="inlineStr"/>
       <c r="BM8" t="inlineStr"/>
-      <c r="BN8" t="inlineStr"/>
-      <c r="BO8" t="inlineStr"/>
-      <c r="BP8" t="inlineStr"/>
-      <c r="BQ8" t="inlineStr"/>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>FAMU - Film and TV School of the Academy of Performing Arts in Prague</t>
+        </is>
+      </c>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>Smetanovo nábřeží 2</t>
+        </is>
+      </c>
+      <c r="BP8" t="inlineStr">
+        <is>
+          <t>116 65, Prague 1</t>
+        </is>
+      </c>
+      <c r="BQ8" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
       <c r="BR8" t="inlineStr"/>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>Hessischer Rundfunk</t>
-        </is>
-      </c>
-      <c r="BT8" t="inlineStr"/>
-      <c r="BU8" t="inlineStr"/>
-      <c r="BV8" t="inlineStr"/>
+          <t>MAUR film</t>
+        </is>
+      </c>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>Revoluční 1403/28</t>
+        </is>
+      </c>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>110 00 Praha 1</t>
+        </is>
+      </c>
+      <c r="BV8" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
       <c r="BW8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[{'Date': 'May 2025', 'Country': 'Czech Republic', 'Name_of_place_of_premiere': 'Anifilm (czech and world premiere)'}]</t>
+          <t>[{'Date': '', 'Country': '', 'Name_of_place_of_premiere': ''}]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[{'Date': 'May 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'Anifilm'}]</t>
+          <t>[{'Date': 'May 2025', 'Country': 'France', 'Name_of_Festival': 'Brest European Short Film Festival'}]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2384,37 +2407,37 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A giant beetroot goes on a rampage in this wild Slavic kaiju tale mixing live action, stop-motion, and 2D animation.</t>
+          <t>Two small-town cops are first on the scene of a mass shooting—and must act fast with hostages still inside.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Inspired by the traditional Slavic folktale “The Enormous Turnip,” a beetroot grows so huge that no one can pull it from the ground. When a local crane operator is hired to do the job, the giant vegetable turns violent and destructive. As chaos unfolds, an army is mobilized to stop it — but maybe there’s another way to appease this monstrous force.</t>
+          <t>A routine day for two small-town policemen, young Pavel and experienced Michal, is turned upside down when they become the first patrol to arrive at the scene of a mass shooting at a restaurant with hostages still inside. Despite being professionals, the two colleagues are afraid, disagree about how to proceed, and make mistakes.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Beetroot is a collaboration between two directors from FAMU and UMPRUM, blending distinct authorial styles. Inspired by the classic Czech tale The Big Beetroot, we reimagine the beet as an uncontrollable force, merging fairy tale with the Japanese Kaiju genre. As the beet grows, so do the problems—nature's power takes monstrous form.</t>
+          <t>I drew inspiration for First Patrol from the 2015 tragedy in Uherský Brod, the Czech Republic’s first mass shooting. The title reflects both the officers’ arrival as the first patrol and Czech society’s first encounter with such violence. Rather than a reconstruction, the film offers an immersive journey placing us in the patrol car with first responders, who witness the horror yet remain human above all.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Doprovázení (It can be any day), 2023', 'Růžička ve tmě (Rose in the dark), 2022']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>the_beetroot.html</t>
+          <t>first_patrol.html</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Řepa</t>
+          <t>První hlídka</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>The Beetroot</t>
+          <t>First Patrol</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -2435,12 +2458,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>05.01.2025</t>
+          <t>1 January 2025</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>00:12:56</t>
+          <t>00:18:10</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr"/>
@@ -2453,83 +2476,87 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>['animation', 'fairytale', 'sci-fi']</t>
+          <t>['drama', 'crime', 'psychological']</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr">
         <is>
-          <t>beetroot, fairytale, kaiju, enviroment</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>general audience</t>
-        </is>
-      </c>
+          <t>police work, true crime, mass shooting, first responders</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>15+</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Jáchym Štulíř, David Šourek</t>
+          <t>Vojtěch Konečný</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>Jáchym Štulíř, David Šourek</t>
+          <t>Jan Dvořáček, Vojtěch Konečný</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>David Šourek</t>
+          <t>Filip Hájek</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>Ondřej Plecháč</t>
+          <t>Enis Saraci</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>Juras Karaka</t>
+          <t>Jan Strnad</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>Jáchym Štulíř</t>
+          <t>Anna Machátová</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>Juras Karaka</t>
+          <t>Tomáš Borl</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
+          <t>['František Beleš', 'Pavel Řezníček']</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>3 July 1995</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>Vojtěch Konečný is completing the MA film directing course at FAMU. He graduated from University of the Arts London, BA (Hons) Film and TV course. He is one of the founders of the film production company nukleon frame. His short It Can Be Any Day was the finalist for the Magnesia Award for Best Student Film of 2023 at the Czech Lions film awards.</t>
+        </is>
+      </c>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>Sony Venice</t>
+        </is>
+      </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>2D computer</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>mixing live action</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
       <c r="AT9" t="inlineStr"/>
@@ -2539,34 +2566,26 @@
           <t>DCP</t>
         </is>
       </c>
-      <c r="AW9" t="inlineStr">
-        <is>
-          <t>ProRes, h264</t>
-        </is>
-      </c>
+      <c r="AW9" t="inlineStr"/>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>2K</t>
+          <t>4k</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr">
-        <is>
-          <t>progressive (DCP, e-cinema, TV)</t>
-        </is>
-      </c>
+      <c r="AZ9" t="inlineStr"/>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr">
-        <is>
-          <t>1.33 (4:3)</t>
-        </is>
-      </c>
-      <c r="BD9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr">
+        <is>
+          <t>2:1</t>
+        </is>
+      </c>
       <c r="BE9" t="inlineStr">
         <is>
           <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
@@ -2581,79 +2600,59 @@
       <c r="BH9" t="inlineStr"/>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>FAMU</t>
+          <t>nukleon frame</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
+          <t>Davídkova 2375/29</t>
+        </is>
+      </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>180 00 Praha 8</t>
+        </is>
+      </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="BM9" t="inlineStr">
+        <is>
+          <t>nukleonframe.cz</t>
+        </is>
+      </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>FAMU - Film and TV School of the Academy of Performing Arts in Prague</t>
+        </is>
+      </c>
+      <c r="BO9" t="inlineStr">
+        <is>
           <t>Smetanovo nábřeží 2</t>
         </is>
       </c>
-      <c r="BK9" t="inlineStr">
-        <is>
-          <t>116 65 Prague 1</t>
-        </is>
-      </c>
-      <c r="BL9" t="inlineStr">
+      <c r="BP9" t="inlineStr">
+        <is>
+          <t>116 65 Praha 1</t>
+        </is>
+      </c>
+      <c r="BQ9" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="BM9" t="inlineStr">
+      <c r="BR9" t="inlineStr">
         <is>
           <t>famu.cz</t>
         </is>
       </c>
-      <c r="BN9" t="inlineStr">
-        <is>
-          <t>UMPRUM - Michaela Režová</t>
-        </is>
-      </c>
-      <c r="BO9" t="inlineStr">
-        <is>
-          <t>nám. J. Palacha 80/3</t>
-        </is>
-      </c>
-      <c r="BP9" t="inlineStr">
-        <is>
-          <t>116 93 Prague 1</t>
-        </is>
-      </c>
-      <c r="BQ9" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="BR9" t="inlineStr">
-        <is>
-          <t>umprum.cz</t>
-        </is>
-      </c>
-      <c r="BS9" t="inlineStr">
-        <is>
-          <t>Altum Frames - Hynek Spurný</t>
-        </is>
-      </c>
-      <c r="BT9" t="inlineStr">
-        <is>
-          <t>Záhořanského 1944/4</t>
-        </is>
-      </c>
-      <c r="BU9" t="inlineStr">
-        <is>
-          <t>120 00 Prague 2</t>
-        </is>
-      </c>
-      <c r="BV9" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="BW9" t="inlineStr">
-        <is>
-          <t>altumframes.com</t>
-        </is>
-      </c>
+      <c r="BS9" t="inlineStr"/>
+      <c r="BT9" t="inlineStr"/>
+      <c r="BU9" t="inlineStr"/>
+      <c r="BV9" t="inlineStr"/>
+      <c r="BW9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2663,56 +2662,56 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[{'Date': 'September 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'ZLÍN FILM FESTIVAL – International Film Festival for Children and Youth'}]</t>
+          <t>[{'Date': '', 'Country': '', 'Name_of_Festival': ''}]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[{'Date': '2024', 'Country': 'USA', 'Festival_Section_of_Competition': 'Student Academy Awards - Golden Medal'}]</t>
+          <t>[{'Date': '', 'Country': '', 'Festival_Section_of_Competition': ''}]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>On New Year's Eve 1944, two Sudeten men—one a widower, the other an SS officer—confront a shared past in a snowbound cottage cut off from the world.</t>
+          <t>Charcoal animation reveals the fear of home through the eyes of a little boy who has to be constantly on alert and ready to escape.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>On New Year’s Eve 1944, widower Petr Bernat and SS officer Konrad Neumann meet in a remote cottage during a snowstorm. United only by their Sudeten origins, their conversation shifts from trivial topics to painful truths, leading to a fateful night for both men.</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>A seemingly ordinary childhood seen through the eyes of a little boy. Hand-drawn charcoal animation and intense sound design reveal the fear of home that forces the boy to be constantly on alert and ready to flee. The film conveys the child's bodily experience on screen, drawing inspiration from the real childhood memories of four adults.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>I feel grateful to have the opportunity to create my own films, I wanted to dedicate the film to people who don’t and whose stories deserve to be heard. I wanted the animation to convey how they felt at home as children. The expressive nature of charcoal helped me emphasize the subjective perspective of the child protagonist. I wanted to capture the fear they encountered every day and their need to escape from a dysfunctional home during difficult moments – whether mentally or physically.</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Dotknout se tmy (Touching Darkness), 2024', 'Uvnitř (Inside), 2022', 'Nalov (Hunt), 2022']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>the_compatriot.html</t>
+          <t>gently.html</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Krajan</t>
+          <t>Křehce</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>The Compatriot</t>
+          <t>Gently</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Czech, German</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>English, Czech</t>
-        </is>
-      </c>
+          <t>without dialogue</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
           <t>Czech Republic</t>
@@ -2720,12 +2719,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>01.01.2023</t>
+          <t>20. 01. 2026</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>00:24:34</t>
+          <t>00:08:44</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr"/>
@@ -2738,13 +2737,13 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>['psychological', 'drama', 'historical', 'war']</t>
+          <t>['ani-doc']</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr">
         <is>
-          <t>WWII, second world war, Sudeten</t>
+          <t>domestic violence, child, rage, run away, alcoholism, charcoal animation</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -2752,50 +2751,42 @@
           <t>12+</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>general audience</t>
-        </is>
-      </c>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Viktor Horák, Pavel Sýkora</t>
+          <t>Jamaica Kindlová</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>Petr Pelech, Pavel Sýkora</t>
+          <t>Jamaica Kindlová</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Pavel Sýkora</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>Lukáš Skalník</t>
-        </is>
-      </c>
+          <t>Filip Kovář</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>Yurii Fenynets</t>
+          <t>Jan Strnad</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>Jakub Zajíc</t>
-        </is>
-      </c>
+      <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>['Jiří Štěpnička', 'Pavel Batěk', 'Martin Hlubocký']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>Jamaica Kindlová is an animator and director, who focuses on documentary themes. Besides film, she is interested in illustration and puppet theater. Touching Darkness, a sand-animation film she created at FAMU, has been selected for many film festivals and won several awards including the Pavel Koutecký Award for best short documentary.</t>
+        </is>
+      </c>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
@@ -2806,7 +2797,11 @@
         </is>
       </c>
       <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>Charcoal animation</t>
+        </is>
+      </c>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
       <c r="AT10" t="inlineStr"/>
@@ -2819,14 +2814,14 @@
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>4k</t>
+          <t>HD: 1920X1080</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
       <c r="AZ10" t="inlineStr"/>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr"/>
@@ -2838,29 +2833,29 @@
       <c r="BD10" t="inlineStr"/>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
+          <t>Dolby Digital 7.1 (5.1 + Lss, Rss)</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr"/>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>Colour</t>
+          <t>Black &amp; White</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr"/>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>FAMO</t>
+          <t>Tereza Havlová, BATCH Film s.r.o.</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>Lipová alej 2068</t>
+          <t>Pálavská 15</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
         <is>
-          <t>397 01 Písek</t>
+          <t>323 00 Pilsen</t>
         </is>
       </c>
       <c r="BL10" t="inlineStr">
@@ -2870,10 +2865,14 @@
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>www.filmovka.cz</t>
-        </is>
-      </c>
-      <c r="BN10" t="inlineStr"/>
+          <t>batchfilm.eu</t>
+        </is>
+      </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>Studio FAMU, Tomáš Šimon</t>
+        </is>
+      </c>
       <c r="BO10" t="inlineStr"/>
       <c r="BP10" t="inlineStr"/>
       <c r="BQ10" t="inlineStr"/>
@@ -2887,70 +2886,78 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[{'Date': '', 'Country': '', 'Name_of_place_of_premiere': ''}]</t>
+          <t>[{'Date': '1 April 2025', 'Country': 'Argentina', 'Name_of_place_of_premiere': 'BAFICI - Buenos Aires International Festival of Independent Cinema'}]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[{'Date': '', 'Country': 'Sweden', 'Name_of_Festival': 'Uppsala International Short Film Festival'}, {'Date': '', 'Country': 'Belgium', 'Name_of_Festival': 'Anima - the Brussels Animation Film Festival'}, {'Date': '', 'Country': 'Sweden', 'Name_of_Festival': 'BUFF Malmö Film Festival'}]</t>
+          <t>[{'Date': 'June 2025', 'Country': 'France', 'Name_of_Festival': 'Annecy Festival'}, {'Date': 'April 2025', 'Country': 'Argentina', 'Name_of_Festival': 'BAFICI - Buenos Aires International Festival of Independent Cinema'}, {'Date': 'July 2025', 'Country': 'Kosovo', 'Name_of_Festival': 'Anibar Animation Festival'}, {'Date': 'June 2025', 'Country': 'Argentina', 'Name_of_Festival': 'Stop Motion Our Fest'}, {'Date': 'June 2025', 'Country': 'Argentina', 'Name_of_Festival': 'Festival de Cine Latinoamericano Rosario'}, {'Date': 'September 2025', 'Country': 'France', 'Name_of_Festival': "L'Étrange Festival"}, {'Date': 'September 2025', 'Country': 'Ukraine', 'Name_of_Festival': 'Kyiv International Short Film Festival'}, {'Date': 'October 2025', 'Country': 'Armenia', 'Name_of_Festival': 'ReAnimania Int. Animation Film &amp; Comics Art Festival of Yerevan'}, {'Date': 'November 2025', 'Country': 'Germany', 'Name_of_Festival': 'Braunschweig International Film Festival'}, {'Date': 'November 2025', 'Country': 'Argentina', 'Name_of_Festival': 'BIT BANG Festival'}, {'Date': 'December 2025', 'Country': 'Cuba', 'Name_of_Festival': 'Festival Internacional del Nuevo Cine Latinoamericano'}]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[{'Date': '', 'Country': '', 'Festival_Section_of_Competition': ''}]</t>
+          <t>[{'Date': 'June 2025', 'Country': 'Argentina', 'Festival_Section_of_Competition': 'una Mención Especial en la Competencia de Cortometrajes - Festival de Cine Latinoamericano Rosario'}]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Can hedgehog swim?</t>
+          <t>In a world ruled by a mysterious telephone, power shifts from a distant force to the people themselves—revealing how the oppressed become oppressors.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Slightly moralising pun, filmed with pleasant exaggeration and a sense of animation shorthand. A child's imagination knows no bounds, and anyone who gets too carried away, whether drawing or just looking at a picture, can end up getting really wet. A hedgehog like that doesn't seem to be a very good swimmer, but he's all the more powerful.</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>Late at night in a shabby office, workers are stuck to the ceiling by their hats, blindly doing their jobs. Oblivious to the absurdity, they vanish one by one when an old phone rings. Only Hatker dares to face reality — turning their Kafkaesque world upside down.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Hatker explores the theme of power, symbolized by a telephone dictating behavior from afar. As the story unfolds, power proves decentralized—internalized and reproduced by individuals themselves. Inspired by my own experience in a corporate office, the film uses the metaphor of “hats” to represent the roles we adopt until the protagonist chooses to break free by taking his off.</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['Misophonia Orchestra (2022)', 'Kuku [Cuckoo](2020)', 'Medvědění [Bearing] (2018)', 'Závodní horečka [Racing Fever] (2017)', 'Nezbeda (2015)']</t>
+          <t>['Epirenov, 2020', 'Hatker, 2025']</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>the_hedgehog.html</t>
+          <t>hatker.html</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Ježek</t>
+          <t>Hatker</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>The Hedgehog</t>
+          <t>Hatker</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>no dialogue</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr"/>
+          <t>without dialogue</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>February 2023</t>
+          <t>9 March 2025</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>00:01:30</t>
+          <t>00:07:33</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr"/>
@@ -2963,45 +2970,53 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>['animation', 'children', 'comedy']</t>
+          <t>['animation', 'absurd']</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr">
         <is>
-          <t>hedgehog, swimming pool, child's imagination</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>3+</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>family</t>
-        </is>
-      </c>
+          <t>hat, power, telephone, office, control, work, Kafka</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Daniela Hýbnerová</t>
+          <t>Alejandro Ariel Martin</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>Daniela Hýbnerová</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
+          <t>Alejandro Ariel Martin, Florencia Pilotti</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Alejandro Ariel Martin</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>Alejandro Ariel Martin</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>Santiago Zecca</t>
+        </is>
+      </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>Daniela Hýbnerová</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr"/>
+          <t>Carolina Cairo</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>Hermes Scipioni</t>
+        </is>
+      </c>
       <c r="AH11" t="inlineStr">
         <is>
           <t>[]</t>
@@ -3010,7 +3025,7 @@
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>Daniela Hýbnerová graduated from the Animation Department at FAMU in Prague. Her short animated film The One About the Shirt won 2nd place in the international round of the Nespresso Talents 2020 competition. Daniela is a fan of Formula 1 racing, film music and the world of Harry Potter.</t>
+          <t>Alejandro Ariel Martin is an Argentinian filmmaker. He holds a degree in Social Communication from the National University of Rosario (UNR) and a postgraduate degree in Creative Communication from the Autonomous University of Barcelona. His work as a writer and director includes the short films Epirenov (2020) and Hatker (2025).</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr"/>
@@ -3024,7 +3039,7 @@
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>2D computer</t>
+          <t>stop-motion</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr"/>
@@ -3037,11 +3052,7 @@
           <t>DCP</t>
         </is>
       </c>
-      <c r="AW11" t="inlineStr">
-        <is>
-          <t>Prores, H264</t>
-        </is>
-      </c>
+      <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="inlineStr">
         <is>
           <t>HD: 1920X1080</t>
@@ -3057,7 +3068,7 @@
       <c r="BB11" t="inlineStr"/>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>1.78 (16:9)</t>
+          <t>1.85 ("flat format")</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr"/>
@@ -3073,16 +3084,36 @@
         </is>
       </c>
       <c r="BH11" t="inlineStr"/>
-      <c r="BI11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>Alejandro Ariel Martin, Florencia Pilotti</t>
+        </is>
+      </c>
       <c r="BJ11" t="inlineStr"/>
       <c r="BK11" t="inlineStr"/>
       <c r="BL11" t="inlineStr"/>
       <c r="BM11" t="inlineStr"/>
-      <c r="BN11" t="inlineStr"/>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>Epirenov</t>
+        </is>
+      </c>
       <c r="BO11" t="inlineStr"/>
-      <c r="BP11" t="inlineStr"/>
-      <c r="BQ11" t="inlineStr"/>
-      <c r="BR11" t="inlineStr"/>
+      <c r="BP11" t="inlineStr">
+        <is>
+          <t>Rosario</t>
+        </is>
+      </c>
+      <c r="BQ11" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>epirenov.com</t>
+        </is>
+      </c>
       <c r="BS11" t="inlineStr"/>
       <c r="BT11" t="inlineStr"/>
       <c r="BU11" t="inlineStr"/>
@@ -3092,12 +3123,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[{'Date': '', 'Country': '', 'Name_of_place_of_premiere': ''}]</t>
+          <t>[{'Date': 'May 2025', 'Country': 'Germany', 'Name_of_place_of_premiere': 'Neisse Film Festival'}]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[{'Date': '', 'Country': '', 'Name_of_Festival': ''}]</t>
+          <t>[{'Date': 'May 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'Anifilm'}, {'Date': 'June 2025', 'Country': 'Argentina', 'Name_of_Festival': 'Stop Motion Our Fest'}, {'Date': 'August 2025', 'Country': 'Israel', 'Name_of_Festival': 'ANIMIX - International Animation &amp; Comics Festival'}, {'Date': 'June 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'International Film Festival for Children and Youth - ZLÍN'}, {'Date': 'May 2025', 'Country': 'Germany', 'Name_of_Festival': 'Neisse Film Festival'}]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3107,48 +3138,48 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Volklore weaves Czech folklore traditions with fashion’s milestones, tracing seasons in the rhythm of consumerism.</t>
+          <t>An auteur short animated documentary exploring the inner feelings of home. What does home mean to each of us?</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Volklore, an experimental video essay exploring how Czech folklore transforms in the digital age of social networks. Traditions become tools for marketing; you become a brand, your followers a community. YouTuber Vivi guides us through folk customs linking them to key fashion events. But is there authenticity in the age of platform capitalism?</t>
+          <t>An auteur film on the theme of inner feelings of home. What is home for each of us? Where is this place located? What is it connected to? Is home a specific place, or is home within us? A journey around the world in search of that "home" - the place where you feel you belong. Where you are safe and among your own.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>I created Volklore out of a personal need to bring Moravian folklore into its contemporary context. The film treats folklore as a living form of cultural expression rather than a relic. It shows how traditions are reshaped by social values and markets. Through a YouTube vlog, the film explores the digital reality of Generation Z, where advertising becomes a new form of folk storytelling. My goal is not to romanticize, but to reveal an online reality that is becoming increasingly common.</t>
+          <t>I really liked studying and living in the Czech Republic, but throughout my studies I kept thinking about my home, about my family that I left behind in Belarus. Being a foreigner was not as easy as I thought. I had to go through many hardships, but the hardest was homesickness and family. This feeling tormented me, the thoughts didn't want to leave my head and I decided to release these emotions in my work.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['Michal Hrůza - Mikádo (2024)', 'EO DE ME (EO DE ME, 2023)', 'Brighter Days - Always fine (2022)', 'Lajfr - Antigona (2022)', 'Vevnitř (Inside, 2020)']</t>
+          <t>['Jak vám mohu pomoci? (How can I help you?), 2022 - one episode from the eight-part Czech television animated series']</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>volklore.html</t>
+          <t>home.html</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Volklore</t>
+          <t>Domov</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Volklore</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Czech</t>
+          <t>Russian</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>English, Czech</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -3158,12 +3189,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>7.1.2026</t>
+          <t>1 March 2025</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>00:15:54</t>
+          <t>00:05:43</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr"/>
@@ -3171,22 +3202,18 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>['experimental', 'fiction']</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>videoessay, tale</t>
-        </is>
-      </c>
+          <t>['animation', 'poetic']</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr">
         <is>
-          <t>digital folklor, folklor, traditions, generation Z, digital platforms, YouTube, identity, fashion, community, social media, vlog, self-brand, influencer, seasons</t>
+          <t>home, thoughts, journey, sense of security, feelings, connection, soul, diary, freedom, bird</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -3196,68 +3223,68 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>youth</t>
+          <t>general audience</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Viktorie Štěpánová</t>
+          <t>Anastasiya Skarko</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>Hermína Perič &amp; Viktorie Štěpánová</t>
+          <t>Anastasiya Skarko</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Františka Bakošová, Adam Kácha, Eva Gabrižová</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>Viktorie Štěpánová</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>Jan Licek</t>
+          <t>Miroslav Chaloupka</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>Viktorie Štěpánová</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>Martin Kožucharov, Tomáš Jiřička</t>
+          <t>Yaraslau Dubashynski</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>['YouTuber Vivi: Monina Nevrlá']</t>
+          <t>['Kateřina Marečková']</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>15.06.1999</t>
+          <t>5 September 1998</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>Viktorie Štěpánová, Master of Arts graduate from FAMU, is a multidisciplinary artist working at the intersection of illustration, animation, graphic design, and fashion. Her work explores themes of identity, pop culture, and digital platforms. She approaches visual storytelling experimentally, pushing the possibilities of media and technique while subversively engaging with consumerist aesthetics. She is known for her films Vevnitř and EO DE ME—the former nominated for a Student BAFTA. More recently, she has focused on fashion films, bringing all her talents together.</t>
+          <t>Anastasiya was born in Minsk, Belarus. Since 2018, she has worked as an art editor at the magazine of satire and humor "Vozhik". In 2020-2024 she studied animation at the Ladislav Sutnar Faculty of Design and Art at the University of West Bohemia in Pilsen.</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>HDCAM</t>
-        </is>
-      </c>
+      <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="AO12" t="inlineStr">
         <is>
           <t>No</t>
@@ -3269,13 +3296,25 @@
         </is>
       </c>
       <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>Adobe After Effects</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AU12" t="inlineStr"/>
       <c r="AV12" t="inlineStr"/>
       <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>HD: 1920X1080</t>
+        </is>
+      </c>
       <c r="AY12" t="inlineStr"/>
       <c r="AZ12" t="inlineStr"/>
       <c r="BA12" t="inlineStr">
@@ -3292,29 +3331,25 @@
       <c r="BD12" t="inlineStr"/>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>Stereo (2.0, L+R)</t>
+          <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr"/>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>Colour</t>
+          <t>Black &amp; White</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr"/>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>FAMU</t>
-        </is>
-      </c>
-      <c r="BJ12" t="inlineStr">
-        <is>
-          <t>Smetanovo nábřeží 2</t>
-        </is>
-      </c>
+          <t>Maur Film, Martin Vandas</t>
+        </is>
+      </c>
+      <c r="BJ12" t="inlineStr"/>
       <c r="BK12" t="inlineStr">
         <is>
-          <t>116 65 Prague</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="BL12" t="inlineStr">
@@ -3324,49 +3359,61 @@
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>famu.cz</t>
-        </is>
-      </c>
-      <c r="BN12" t="inlineStr"/>
+          <t>maurfilm.com</t>
+        </is>
+      </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>University of Bohemia</t>
+        </is>
+      </c>
       <c r="BO12" t="inlineStr"/>
-      <c r="BP12" t="inlineStr"/>
-      <c r="BQ12" t="inlineStr"/>
+      <c r="BP12" t="inlineStr">
+        <is>
+          <t>Pilsen</t>
+        </is>
+      </c>
+      <c r="BQ12" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
       <c r="BR12" t="inlineStr"/>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>Viktorie Štěpánová</t>
+          <t>Anastasiya Skarko</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
         <is>
-          <t>Vranov 278</t>
+          <t>99-11 Geologicheskaya Street</t>
         </is>
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>664 32</t>
+          <t>Minsk</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Republic of Belarus</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>@iamviktorie</t>
+          <t>Predlogik57@mail.com</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[{'Date': '2024', 'Country': 'Czech Republic', 'Name_of_place_of_premiere': 'Anifilm (czech / world premiere)'}]</t>
+          <t>[{'Date': '', 'Country': '', 'Name_of_place_of_premiere': ''}]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[{'Date': '2024', 'Country': 'Czech Republic', 'Name_of_Festival': 'Anifilm'}, {'Date': 'October 2024', 'Country': 'Portugal', 'Name_of_Festival': 'Cinanima'}, {'Date': 'December 2024', 'Country': 'Slovenia', 'Name_of_Festival': 'Animateka International Animated Film Festival'}, {'Date': 'August 2025', 'Country': 'Italy', 'Name_of_Festival': 'Film Festival della Lessinia'}, {'Date': 'October 2025', 'Country': 'Romania', 'Name_of_Festival': 'Animest'}, {'Date': 'November 2025', 'Country': 'Italy', 'Name_of_Festival': 'Reggio Film Festival'}]</t>
+          <t>[{'Date': '', 'Country': '', 'Name_of_Festival': ''}]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3374,14 +3421,10 @@
           <t>[{'Date': '', 'Country': '', 'Festival_Section_of_Competition': ''}]</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>The film explores waves in nature and life through dramatic moments, human fragments, and flowing movements in sea, grass, and branches.</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>This short author film is being created using sand animation, and explores the theme of waves in various forms and contexts. A collage of situations from non-specific places around the globe, and the rhythmical motion and sound of waves occuring naturally in the world around us.</t>
+          <t>Jackovo divoké srdce (Hot blood) is a short animated neowestern film that explores the theme of broken friendships, often leaving behind a sense of something unspoken, unresolved. In this visually inventive tale, Jack embarks on a quest to find his former friend Hank Craven in hopes of reclaiming the guitar that Hank took from him twenty years.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -3392,35 +3435,35 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>waves.html</t>
+          <t>hot_blood.html</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Vlny</t>
+          <t>Jackovo divoké srdce</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Waves</t>
+          <t>Hot Blood</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>no dialogue</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>01.01.2026</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>00:08:00</t>
+          <t>00:12:00</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr"/>
@@ -3433,64 +3476,36 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>['animation', 'children', 'war', 'poetic']</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>waves, lyrical,</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>15+</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>general audience</t>
-        </is>
-      </c>
+          <t>['animation', 'western']</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>neo western</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Michael Carrington</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>Michael Carrington</t>
-        </is>
-      </c>
+          <t>Jan B. Piskač</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>Tomáš Doruška</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>Turgut Mavuk</t>
-        </is>
-      </c>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>Ahmet Kenan Bilgic</t>
-        </is>
-      </c>
+      <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>Michael Carrington, artist and animator, was born in 1973 in London. He studied in Zlín and teaches animation at FAMU in Prague. He worked at Ealing Studios and as lead animator on Jan Balej’s films. He supervised award-winning shorts Daughter and The Kite.</t>
-        </is>
-      </c>
+      <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr"/>
@@ -3502,44 +3517,24 @@
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>sand/powder</t>
-        </is>
-      </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>monochromatic underlit sand animation</t>
-        </is>
-      </c>
+          <t>stop-motion</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
       <c r="AT13" t="inlineStr"/>
       <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="inlineStr">
-        <is>
-          <t>DCP</t>
-        </is>
-      </c>
+      <c r="AV13" t="inlineStr"/>
       <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="inlineStr"/>
       <c r="AY13" t="inlineStr"/>
       <c r="AZ13" t="inlineStr"/>
-      <c r="BA13" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
+      <c r="BA13" t="inlineStr"/>
       <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="inlineStr">
-        <is>
-          <t>1.78 (16:9)</t>
-        </is>
-      </c>
+      <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="inlineStr"/>
-      <c r="BE13" t="inlineStr">
-        <is>
-          <t>Stereo (2.0, L+R)</t>
-        </is>
-      </c>
+      <c r="BE13" t="inlineStr"/>
       <c r="BF13" t="inlineStr"/>
       <c r="BG13" t="inlineStr">
         <is>
@@ -3547,25 +3542,25 @@
         </is>
       </c>
       <c r="BH13" t="inlineStr"/>
-      <c r="BI13" t="inlineStr">
-        <is>
-          <t>Michael Bureš</t>
-        </is>
-      </c>
+      <c r="BI13" t="inlineStr"/>
       <c r="BJ13" t="inlineStr"/>
       <c r="BK13" t="inlineStr"/>
       <c r="BL13" t="inlineStr"/>
       <c r="BM13" t="inlineStr"/>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>Automat Svět s.r.o.</t>
+          <t>FAMU</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr"/>
       <c r="BP13" t="inlineStr"/>
       <c r="BQ13" t="inlineStr"/>
       <c r="BR13" t="inlineStr"/>
-      <c r="BS13" t="inlineStr"/>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t>AZN kru</t>
+        </is>
+      </c>
       <c r="BT13" t="inlineStr"/>
       <c r="BU13" t="inlineStr"/>
       <c r="BV13" t="inlineStr"/>
@@ -3574,65 +3569,61 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[{'Date': '06/2024', 'Country': 'Croatia', 'Name_of_place_of_premiere': 'Animafest Zagreb'}]</t>
+          <t>[{'Date': 'May 2024', 'Country': 'Czech Republic', 'Name_of_place_of_premiere': 'Anifilm'}]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[{'Date': '07/2024', 'Country': 'Italy', 'Name_of_Festival': 'ShorTS - International Film Festival'}, {'Date': '11/2024', 'Country': 'Switzerland', 'Name_of_Festival': 'Internationale Kurzfilmtage Winterthur'}, {'Date': '10/2024', 'Country': 'Hungary', 'Name_of_Festival': 'Primanima World Festival of First Animations'}, {'Date': '03/2025', 'Country': 'Sweden', 'Name_of_Festival': 'BUFF Malmö Film Festival'}]</t>
+          <t>[{'Date': 'June 2024', 'Country': 'Slovakia', 'Name_of_Festival': 'Fest Anča'}, {'Date': 'June 2024', 'Country': 'Croatia', 'Name_of_Festival': 'Animafest Zagreb'}, {'Date': 'May 2024', 'Country': 'Czech Republic', 'Name_of_Festival': 'International Film Festival for Children and Youth - ZLÍN'}, {'Date': 'May 2024', 'Country': 'Czech Republic', 'Name_of_Festival': 'Anifilm'}, {'Date': 'July 2024', 'Country': 'Kosovo', 'Name_of_Festival': 'Anibar Animation Festival'}, {'Date': 'October 2024', 'Country': 'Norway', 'Name_of_Festival': 'Fredrikstad Animation Festival'}, {'Date': 'December 2024', 'Country': 'Slovenia', 'Name_of_Festival': 'Animateka International Animated Film Festival'}, {'Date': 'October 2024', 'Country': 'Hungary', 'Name_of_Festival': 'Primanima World Festival of First Animations'}, {'Date': 'May 2025', 'Country': 'Norway', 'Name_of_Festival': 'Kristiansand International Children’s Film Festival'}, {'Date': 'October 2024', 'Country': 'Argentina', 'Name_of_Festival': 'ANIMA, Córdoba International Animation Festival'}, {'Date': 'November 2024', 'Country': 'UK', 'Name_of_Festival': 'London International Animation Festival'}, {'Date': 'January 2025', 'Country': 'Switzerland', 'Name_of_Festival': 'BLACK MOVIE, Geneva International Independent Film Festival'}, {'Date': 'August 2025', 'Country': 'Canada', 'Name_of_Festival': 'Anim sur le Lac'}, {'Date': 'August 2025', 'Country': 'Israel', 'Name_of_Festival': 'ANIMIX - International Animation &amp; Comics Festival'}, {'Date': 'June 2025', 'Country': 'France', 'Name_of_Festival': 'Plein la Bobine'}]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[{'Date': '', 'Country': '', 'Festival_Section_of_Competition': ''}]</t>
+          <t>[{'Date': 'November 2024', 'Country': 'USA', 'Festival_Section_of_Competition': 'Denver Film Festival, Marilyn Marsh Saint-Veltri Award for Best Student Animation Short'}, {'Date': 'January 2025', 'Country': 'France', 'Festival_Section_of_Competition': 'Premier Plans Film Festival, Prix du Public'}, {'Date': 'October 2024', 'Country': 'Germany', 'Festival_Section_of_Competition': 'International Film Festival SCHLINGEL, Audience award for the short films from the "The Long Night of Short Films"'}, {'Date': 'November 2025', 'Country': 'Germany', 'Festival_Section_of_Competition': 'Wiesbaden International Festival of Animation, „Best of International Animation: New Generations“'}, {'Date': 'May 2025', 'Country': 'Spain', 'Festival_Section_of_Competition': 'Bilbao Fantastic Film Festival, Best short film in Fantasy Panorama Section'}, {'Date': 'October 2024', 'Country': 'Poland, Czech Republic', 'Festival_Section_of_Competition': 'Spektrum Film Festival, Audience Award in The Youth Perspective competitions'}, {'Date': 'May 2025', 'Country': 'Italy', 'Festival_Section_of_Competition': 'Stop-eMotion Days in Venice, Starewicz Prize (award for the best student/debut short film)'}, {'Date': 'September 2025', 'Country': 'Spain', 'Festival_Section_of_Competition': 'Galician Freaky Film Festival, winner of the “Olimpo dos Freaks”'}, {'Date': 'April 2025', 'Country': 'Italy', 'Festival_Section_of_Competition': "Bref International Short Film Festival, Special Mention from Critics' Jury"}, {'Date': 'October 2025', 'Country': 'Poland', 'Festival_Section_of_Competition': 'Etiuda &amp; Anima International Film Festival, Marcin Podolec’s mention'}]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Alice and her grandpa uncovers their shared interest in butterflies, uniting their distinct perspectives - through a video game and the real world.</t>
+          <t>Unleash your darkest desires in a world where annoying habits meet their fatal demise.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Alice's summer at her grandpa's takes an unexpected turn. Obsessed with a butterfly-catching video game, she's oblivious to the world around, as well as her entomologist grandpa's interest in protecting endangered butterflies. In a powerful thunderstorm, her wonder for reality awakens, and their bond deepens.</t>
+          <t>Dark comedy about something we all do - we hate other people for trivial reasons. Life is hard even without having to tolerate other people's annoying habits. The problem is you can't kill somebody just because they chew too loudly. But in this animated world, you can make all your dark visions of fatal revenge a reality.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>I myself grew up in a time when digital techonology influenced me at a young age. In the film I wanted to project a subjective view of the world of the heroine, who prefers the colourful reality of a video game to the actual world Our film can inspire kids to look up from their screens and encourage them to seek adventure outside of their comfort zone, with their friends.</t>
+          <t>The idea for this film crystallized from years of experiences and encounters with the annoying humankind. Right after reminding you of what bothers you about people, it showcases all the things you can't do to them in reality. I see this film as a form of therapy, allowing me to creatively explore these unpleasant emotions and not keep them bottled up inside. Instead of silently hating each other, we can laugh and perhaps reflect on how loudly we are munching our popcorn.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['Až vyrostu (When I grow up), 2021']</t>
+          <t>['Zhola nic (Nothing at all), 2017', 'Krvavé pohádky (Bloody Fairy Tales), 2018']</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>world_i_live_in.html</t>
+          <t>humanity.html</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Svět, ve kterém žiji</t>
+          <t>Humanity</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>World I live in</t>
+          <t>Humanity</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Without dialogue</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>without dialogue</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
           <t>Czech Republic</t>
@@ -3640,12 +3631,12 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>05/01/2024</t>
+          <t>12 May 2024</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>00:07:16</t>
+          <t>00:07:46</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr"/>
@@ -3658,47 +3649,51 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>['animation', 'educational']</t>
+          <t>['animation', 'comedy']</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr">
         <is>
-          <t>family, environment, kids, videogame</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr"/>
+          <t>bad habits, annoyance, laughter, revenge, emotions</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>12+</t>
+        </is>
+      </c>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Ester Kasalová</t>
+          <t>Tereza Kovandová</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>Ester Kasalová</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr"/>
+          <t>Lukáš Hrdý, Tereza Kovandová</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Ondřej Nedvěd</t>
+        </is>
+      </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>Lucie Hecht</t>
+          <t>Lívia Vrabeľ</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>Tomáš Jiřička</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>Ester Kasalová, Eliška Kerbachová, Viktorie Ramiková</t>
-        </is>
-      </c>
+          <t>Jakub Trš</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>Pavel Duda</t>
+          <t>Jakub Trš</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
@@ -3709,12 +3704,16 @@
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>Ester Kasalová is a FAMU Master's student specializing in 2D animation and family storytelling. Her work often dvelves into the themes of intergenerational relationships and exploration of reality.</t>
+          <t>An illustrator, animator, storyboard artist, and film director. She finished her master's studies in animation at FAMU Prague with the film Humanity. Her silhouette stop-motion bachelor film Bloody Fairy Tales was screened in more than 20 countries, and selected to festivals such as KVIFF, Milano Film Festival, Interfilm, and Anima Brussels.</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>digital</t>
+        </is>
+      </c>
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr">
         <is>
@@ -3723,19 +3722,27 @@
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>2D computer</t>
-        </is>
-      </c>
-      <c r="AQ14" t="inlineStr"/>
+          <t>puppet</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>live action</t>
+        </is>
+      </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
       <c r="AT14" t="inlineStr"/>
       <c r="AU14" t="inlineStr"/>
-      <c r="AV14" t="inlineStr"/>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>DCP</t>
+        </is>
+      </c>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>HD: 1920X1080</t>
+          <t>2K</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
@@ -3748,7 +3755,7 @@
       <c r="BB14" t="inlineStr"/>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>1.78 (16:9)</t>
+          <t>1.85 ("flat format")</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr"/>
@@ -3764,57 +3771,3791 @@
         </is>
       </c>
       <c r="BH14" t="inlineStr"/>
-      <c r="BI14" t="inlineStr"/>
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>Kristína Škodová</t>
+        </is>
+      </c>
       <c r="BJ14" t="inlineStr"/>
       <c r="BK14" t="inlineStr"/>
       <c r="BL14" t="inlineStr"/>
       <c r="BM14" t="inlineStr"/>
-      <c r="BN14" t="inlineStr">
+      <c r="BN14" t="inlineStr"/>
+      <c r="BO14" t="inlineStr"/>
+      <c r="BP14" t="inlineStr"/>
+      <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
+      <c r="BS14" t="inlineStr">
+        <is>
+          <t>FAMU</t>
+        </is>
+      </c>
+      <c r="BT14" t="inlineStr"/>
+      <c r="BU14" t="inlineStr"/>
+      <c r="BV14" t="inlineStr"/>
+      <c r="BW14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>[{'Date': '06/2024', 'Country': 'France', 'Name_of_place_of_premiere': 'Annecy Festival'}]</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[{'Date': '01/2025', 'Country': 'France', 'Name_of_Festival': 'Festival Premiers Plans'}, {'Date': '02/2025', 'Country': 'Francie', 'Name_of_Festival': 'Festival International du Court Métrage de Clermont-Ferrand'}, {'Date': '04/2025', 'Country': 'Germany', 'Name_of_Festival': 'International Short Film Festival Oberhausen'}, {'Date': '10/2024', 'Country': 'Korea', 'Name_of_Festival': 'Bucheon International Animation Festival'}, {'Date': '09/2024', 'Country': 'Canada', 'Name_of_Festival': 'Ottawa Animation International Film Festival'}]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[{'Date': '02/2025', 'Country': 'France', 'Festival_Section_of_Competition': 'Festival International du Court Métrage de Clermont-Ferrand - Best Animation Award'}, {'Date': '01/2025', 'Country': 'France', 'Festival_Section_of_Competition': 'Festival Premiers Plans - Grand Jury Prize, European short films'}, {'Date': '10/2024', 'Country': 'Portugal', 'Festival_Section_of_Competition': 'Cinanima - AWARD FOR BEST ANIMATED DOCUMENTARY'}, {'Date': '12/2024', 'Country': 'Slovenia', 'Festival_Section_of_Competition': 'Animateka International Animated Film Festival - JURY GRAND PRIX'}]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Survivor of the  Irpin blockade reconstructs her harrowing escape and the haunting feeling of leaving part of herself behind.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>On February 24th in the morning my boyfriend and I decided to go from Kyiv to Irpin to see his parents. It is hard for me to recall the chronology of those days, my mind blocks and minimizes all the memories, erases them, but the only thing I know for sure is that every day everything rapidly became worse.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>As Mstyslav Chernov (20 Days in Mariupol, 2023) said: “I wish I’ve never made this film”. It was incredibly hard in all senses. But reliving the trauma of occupation and abusive relationships made me stronger. With this film I carry a clear message: The culprit must be punished. It’s always the rapist’s fault. Stop the Russian war against Ukraine.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>['I Died in Irpin (2024)', 'Patron the Dog (2022-2024)', 'Papier Mache (2021)', 'Tiger Is Strolling Around (2020)', 'Until It Turns Black (2018)']</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>i_died_in_irpin.html</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>I died in Irpin</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>I died in Irpin</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Ukrainian voiceover</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Czech Republic, Slovakia, Ukraine</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>00:11:22</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>['autobiographical', 'documentary', 'drama', 'animation']</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>escape, war, survival</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>Anastasiia Falileieva</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Anastasiia Falileieva</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>Anastasiia Falileieva</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>Petr Marek</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>Anastasiia Falileieva was born in 2000 in Kremenchuk, Ukraine. She studied stop-motion animation and directing at the Kiyv National I.Karpenko-Kary theatre, cinema and television University. Anastasiia is one of a very few stopmotion professionals left in the Ukrainian industry.</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>charcoal frame-by-frame animation on paper</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="inlineStr"/>
+      <c r="AY15" t="inlineStr"/>
+      <c r="AZ15" t="inlineStr"/>
+      <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr"/>
+      <c r="BC15" t="inlineStr">
+        <is>
+          <t>1.78 (16:9)</t>
+        </is>
+      </c>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="inlineStr"/>
+      <c r="BG15" t="inlineStr">
+        <is>
+          <t>Colour + Black &amp; White</t>
+        </is>
+      </c>
+      <c r="BH15" t="inlineStr"/>
+      <c r="BI15" t="inlineStr">
+        <is>
+          <t>Alena Vandasová, Martin Vandas / Juraj Krasnohorský</t>
+        </is>
+      </c>
+      <c r="BJ15" t="inlineStr"/>
+      <c r="BK15" t="inlineStr"/>
+      <c r="BL15" t="inlineStr"/>
+      <c r="BM15" t="inlineStr"/>
+      <c r="BN15" t="inlineStr">
+        <is>
+          <t>MAUR Film (Czech Republic) / Artichoke (Slovakia)</t>
+        </is>
+      </c>
+      <c r="BO15" t="inlineStr"/>
+      <c r="BP15" t="inlineStr"/>
+      <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
+      <c r="BS15" t="inlineStr">
+        <is>
+          <t>Anastasiia Falileieva, Plastic Bag Studio, Ukraine</t>
+        </is>
+      </c>
+      <c r="BT15" t="inlineStr"/>
+      <c r="BU15" t="inlineStr"/>
+      <c r="BV15" t="inlineStr"/>
+      <c r="BW15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': '', 'Name_of_place_of_premiere': ''}]</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': '', 'Name_of_Festival': ''}]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': '', 'Festival_Section_of_Competition': ''}]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>What would happen if mum was always right?</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Mirek has a huge belly and nobody knows why. Diets and strenuous exercise don't help. His big belly causes many complications. The simple act of putting on socks turns into a hellish mission. We follow the stories of several heroes, each with unusual troubles. Where do they stem from?</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Film based on established parental sayings that are meant to warn children not to do certain things, as this can have far-reaching consequences. These consequences are taken to their extremes in my film through playful exaggeration. At the most general level, I focus on how seriously children can take those parental threats, and how much they carry them with them into adulthood, even though they know that after eating the seeds, watermelon will not grow in their bellies and others..</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>mom_is_always_right.html</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Máma má vždycky pravdu</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Mom is always right</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Maman a toujours raison</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>czech / english, french dubbing</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>O1.01.2022</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>00:07:39</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>['animation', 'comedy', 'family']</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>mom, parent, children, family, love, friendship, care, childhood traumas</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>Marie Urbánková</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Marie Urbánková, David Dvořák</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Marie Urbánková, Jaroslav Fišer</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>Juraj Ondruš</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>Martin Večera</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>Marie Urbánková</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>Kateřina Koutná KAT</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>['Milda Frýdl: boy', 'Zbyšek Puntucek: aborigines']</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>Marie Urbánková, 1995, Prague. First she studied scenography at the SUPŠ. Then, she continued her studies at the Prague UMPRUM, majoring in film and television graphics, where she is currently continuing her master's degree. She illustrates and collaborates with Raketa magazine, illustrated three books. During her studies she made a short animated film for children, "The Concrete Jungle". She graduated with a master's film "Mom is always right".</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>stop-motion</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>DCP</t>
+        </is>
+      </c>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>h264</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>HD: 1920X1080</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+      <c r="AZ16" t="inlineStr"/>
+      <c r="BA16" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="BB16" t="inlineStr"/>
+      <c r="BC16" t="inlineStr">
+        <is>
+          <t>1.78 (16:9)</t>
+        </is>
+      </c>
+      <c r="BD16" t="inlineStr"/>
+      <c r="BE16" t="inlineStr">
+        <is>
+          <t>Stereo (2.0, L+R)</t>
+        </is>
+      </c>
+      <c r="BF16" t="inlineStr"/>
+      <c r="BG16" t="inlineStr">
+        <is>
+          <t>Colour</t>
+        </is>
+      </c>
+      <c r="BH16" t="inlineStr"/>
+      <c r="BI16" t="inlineStr"/>
+      <c r="BJ16" t="inlineStr"/>
+      <c r="BK16" t="inlineStr"/>
+      <c r="BL16" t="inlineStr"/>
+      <c r="BM16" t="inlineStr"/>
+      <c r="BN16" t="inlineStr">
+        <is>
+          <t>FAMU - Film and TV School of the Academy of Performing Arts in Prague</t>
+        </is>
+      </c>
+      <c r="BO16" t="inlineStr">
+        <is>
+          <t>Smetanovo nábřeží 2</t>
+        </is>
+      </c>
+      <c r="BP16" t="inlineStr">
+        <is>
+          <t>116 65, Prague 1</t>
+        </is>
+      </c>
+      <c r="BQ16" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="BR16" t="inlineStr"/>
+      <c r="BS16" t="inlineStr">
+        <is>
+          <t>MAUR film</t>
+        </is>
+      </c>
+      <c r="BT16" t="inlineStr">
+        <is>
+          <t>Revoluční 1403/28</t>
+        </is>
+      </c>
+      <c r="BU16" t="inlineStr">
+        <is>
+          <t>110 00 Praha 1</t>
+        </is>
+      </c>
+      <c r="BV16" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="BW16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': '', 'Name_of_place_of_premiere': ''}]</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': 'Czech Republic', 'Name_of_Festival': 'IDFF Jihlava 2021 Czech Joy'}, {'Date': '', 'Country': 'Poland', 'Name_of_Festival': 'OFF CINEMA International Documentary Film Festival'}, {'Date': '', 'Country': 'Czech republic / Poland', 'Name_of_Festival': 'Kino na hranici / Kino na Granicy'}]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': 'Czech Republic', 'Festival_Section_of_Competition': 'IDFF Jihlava 2021 Czech Joy - best editing'}, {'Date': '', 'Country': 'Czech Republic', 'Festival_Section_of_Competition': 'One World - The Best Film in The Czech Competition'}]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>What should the male force look like in the 21st century? A crushingly honest statement about the internal conflict and the midlife crisis.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Martin Mareček’s film The Force captures five difficult years in the life of a film publicist, feminist and cultural agent Kamil Fila, during which he faces relationship problems, depression and a rather extreme experiment on his own body. The result is not only an incredibly honest testimony on an internal conflict and the middle age crisis, but a</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>out_in_force.html</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Síla</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Out in force</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>czech</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Czech republic</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>01:32:40</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>Martin Mareček</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Martin Mareček</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Jiří Málek</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>Jana Vlčková</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>Jan Burian ml.</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>['Kamil Fila']</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AU17" t="inlineStr"/>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>Apple ProRes</t>
+        </is>
+      </c>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>h264</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>2K</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+      <c r="AZ17" t="inlineStr"/>
+      <c r="BA17" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="BB17" t="inlineStr"/>
+      <c r="BC17" t="inlineStr">
+        <is>
+          <t>1.85 ("flat format")</t>
+        </is>
+      </c>
+      <c r="BD17" t="inlineStr"/>
+      <c r="BE17" t="inlineStr">
+        <is>
+          <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
+        </is>
+      </c>
+      <c r="BF17" t="inlineStr"/>
+      <c r="BG17" t="inlineStr">
+        <is>
+          <t>Colour</t>
+        </is>
+      </c>
+      <c r="BH17" t="inlineStr"/>
+      <c r="BI17" t="inlineStr"/>
+      <c r="BJ17" t="inlineStr"/>
+      <c r="BK17" t="inlineStr"/>
+      <c r="BL17" t="inlineStr"/>
+      <c r="BM17" t="inlineStr"/>
+      <c r="BN17" t="inlineStr"/>
+      <c r="BO17" t="inlineStr"/>
+      <c r="BP17" t="inlineStr"/>
+      <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
+      <c r="BS17" t="inlineStr"/>
+      <c r="BT17" t="inlineStr"/>
+      <c r="BU17" t="inlineStr"/>
+      <c r="BV17" t="inlineStr"/>
+      <c r="BW17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': '', 'Name_of_place_of_premiere': ''}]</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': '', 'Name_of_Festival': ''}]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': '', 'Festival_Section_of_Competition': ''}]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>A fallen minister and a naive dreamer are thrown together by chance. One surreal night forces them to face truth, ambition, and their deepest fears.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>A disgraced justice minister meets an ambitious young woman on a delayed train to Prague. Their unlikely bond deepens over one surreal night filled with hidden lovers, unexpected truths, and a drunken dance of reckoning, as both confront ambition, loneliness, and the need for connection.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Return explores the unraveling of a powerful woman after a political downfall. I'm drawn to layered characters and contradictions—especially women in power and how they’re judged differently than men. The film shifts tone and setting to reflect Patricie’s inner descent, using stylized visuals and dynamic camera work to mirror her instability, loneliness, and vulnerability. At its core, it’s about communication breakdown and the clash of ideals.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>['Příspěvek na bydlení (Housing allowance), 2024 - director', "Muž, který nemohl spát (The man who couldn't sleep), 2023 - screenwriter", 'Rozloučení, 2023 - screenwriter', 'auto.au.rum (all.about.rum), 2022 - director and screenwriter']</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>return.html</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Návrat</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Czech</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>00:24:48</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>['drama', 'psychological']</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>local politician, bad day, woman in distress</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>15+</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>adults</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>Lukáš Valíšek</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Lukáš Valíšek</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Marcela Mencelová, Vojtěch Adalbert Dvořák</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>Adéla Kelbichová</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>Jakub Jedlička</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>Tereza Thérová, Lucie Pangrácová</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>Václav Chalupský</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>['Alena Štréblová (Tricia)', 'Alžběta Nováková (Laura)', 'Jindřiška Dudziaková (Veronika)', 'Jakub Jelínek (Marek)', 'Mikuláš Čížek (Andrej)']</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>Lukáš Valíšek is a screenwriting graduate and current directing student at FAMU. He has worked as a writer and script editor on numerous short films and is currently developing several feature-length projects. In his free time, he enjoys drawing and playing video games, and is passionate about experimenting with different forms of storytelling.</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>HDCAM</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AU18" t="inlineStr">
+        <is>
+          <t>HDCAM</t>
+        </is>
+      </c>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>Apple ProRes</t>
+        </is>
+      </c>
+      <c r="AW18" t="inlineStr"/>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>4k</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+      <c r="AZ18" t="inlineStr">
+        <is>
+          <t>progressive (DCP, e-cinema, TV)</t>
+        </is>
+      </c>
+      <c r="BA18" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="BB18" t="inlineStr"/>
+      <c r="BC18" t="inlineStr">
+        <is>
+          <t>1.78 (16:9)</t>
+        </is>
+      </c>
+      <c r="BD18" t="inlineStr"/>
+      <c r="BE18" t="inlineStr">
+        <is>
+          <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
+        </is>
+      </c>
+      <c r="BF18" t="inlineStr"/>
+      <c r="BG18" t="inlineStr">
+        <is>
+          <t>Colour</t>
+        </is>
+      </c>
+      <c r="BH18" t="inlineStr"/>
+      <c r="BI18" t="inlineStr">
+        <is>
+          <t>Barbora Podškubková</t>
+        </is>
+      </c>
+      <c r="BJ18" t="inlineStr"/>
+      <c r="BK18" t="inlineStr"/>
+      <c r="BL18" t="inlineStr"/>
+      <c r="BM18" t="inlineStr"/>
+      <c r="BN18" t="inlineStr">
+        <is>
+          <t>FAMU</t>
+        </is>
+      </c>
+      <c r="BO18" t="inlineStr"/>
+      <c r="BP18" t="inlineStr"/>
+      <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
+      <c r="BS18" t="inlineStr">
+        <is>
+          <t>Česká televize</t>
+        </is>
+      </c>
+      <c r="BT18" t="inlineStr"/>
+      <c r="BU18" t="inlineStr"/>
+      <c r="BV18" t="inlineStr"/>
+      <c r="BW18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>[{'Date': '10/2025', 'Country': 'Czech Republic', 'Name_of_place_of_premiere': 'JI.HLAVA INTERNATIONAL DOCUMENTARY FILM FESTIVAL'}]</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': '', 'Name_of_Festival': ''}]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': '', 'Festival_Section_of_Competition': ''}]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>“There is knowledge that defies words. And a tongue best left uncomprehended.”</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Inspired by the abruptly ending novel by E.A. Poe, The Narrative of Arthur Gordon Pym, this short film follows a lone traveler into a realm where time and reality dissolve. In the heart of an ancient, decaying temple, something stirs from the darkness. What awaits in the depths may change everything. A tale of fate and the unknown.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>“There is knowledge that defies words. And a tongue best left uncomprehended.” This horror fairy tale, echoing Poe’s Pym, follows a lone traveler into a ruined temple where stone writhes, glyphs refuse meaning, and a white void lowers sensing tendrils. The narration is in an unknown language; we refuse subtitles. The film seeks surrender over survival—an exposure to fate and transformation, where self and time dissolve into blinding whiteness.</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>['Time Metallurgist (2024)', 'Místo [Place, 2020]', 'Vyčerpané Slunce [Exhausted sun] (2019)']</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>snowblind.html</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>SnowBlind</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>SnowBlind</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>unintelligible language</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>06.06.2025</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>00:08:53</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>['experimental']</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>time, transformation, unknown, void, existence, Poe, Lovecraft</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>15+</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>Tomáš Rampula</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Tomáš Rampula</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>Tomáš Rampula</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>Alex Strapková, Tomáš Rampula</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>Tomas Rampula is an artist exploring the intersection of art, technology, and storytelling. After studying architecture at CVUT, he pursued screen-based art at Bezalel Academy in Jerusalem and later specialized at FAMU in Prague, where he earned his MgA in 2024. His work blends architecture, sound, and cutting-edge tools like game engines and CGI to craft immersive pieces that reinterpret myths through everyday actions and challenge perception.</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>digital media</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>Da Vinci Resolve</t>
+        </is>
+      </c>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>ProTools</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AU19" t="inlineStr"/>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>DCP</t>
+        </is>
+      </c>
+      <c r="AW19" t="inlineStr"/>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>4k</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+      <c r="AZ19" t="inlineStr"/>
+      <c r="BA19" t="inlineStr"/>
+      <c r="BB19" t="inlineStr"/>
+      <c r="BC19" t="inlineStr">
+        <is>
+          <t>1.78 (16:9)</t>
+        </is>
+      </c>
+      <c r="BD19" t="inlineStr"/>
+      <c r="BE19" t="inlineStr">
+        <is>
+          <t>Dolby Stereo (3.1, LCRS)</t>
+        </is>
+      </c>
+      <c r="BF19" t="inlineStr"/>
+      <c r="BG19" t="inlineStr">
+        <is>
+          <t>Colour + Black &amp; White</t>
+        </is>
+      </c>
+      <c r="BH19" t="inlineStr"/>
+      <c r="BI19" t="inlineStr"/>
+      <c r="BJ19" t="inlineStr"/>
+      <c r="BK19" t="inlineStr"/>
+      <c r="BL19" t="inlineStr"/>
+      <c r="BM19" t="inlineStr"/>
+      <c r="BN19" t="inlineStr">
+        <is>
+          <t>Ochi&amp;Ushi</t>
+        </is>
+      </c>
+      <c r="BO19" t="inlineStr"/>
+      <c r="BP19" t="inlineStr"/>
+      <c r="BQ19" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="BR19" t="inlineStr"/>
+      <c r="BS19" t="inlineStr"/>
+      <c r="BT19" t="inlineStr"/>
+      <c r="BU19" t="inlineStr"/>
+      <c r="BV19" t="inlineStr"/>
+      <c r="BW19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>[{'Date': 'May 2025', 'Country': 'Italy', 'Name_of_place_of_premiere': 'Cartoons on the Bay, Pescara'}]</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[{'Date': 'May 2025', 'Country': 'Italy', 'Name_of_Festival': 'Cartoons on the Bay, Pescara'}, {'Date': 'June 2025', 'Country': 'Germany', 'Name_of_Festival': 'die Seriale - International Series Festival Giessen'}, {'Date': 'November 2025', 'Country': 'Spain', 'Name_of_Festival': 'Serielizados Fest'}, {'Date': 'November 2025', 'Country': 'Spain', 'Name_of_Festival': 'Bilbao Seriesland Web Fest Festival'}, {'Date': 'November 2025', 'Country': 'New Zealand', 'Name_of_Festival': 'NZ Web Fest'}, {'Date': 'October 2025', 'Country': 'Armenia', 'Name_of_Festival': 'ReAnimania International Animation Film &amp; Comics Art Festival of Yerevan'}, {'Date': 'November 2025', 'Country': 'China', 'Name_of_Festival': 'Snow Wolf Cup (Jilian Animation Institute)'}]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[{'Date': 'June 2025', 'Country': 'Germany', 'Festival_Section_of_Competition': 'die Seriale - International Series Festival Giessen, Best Animation Award'}, {'Date': 'November 2025', 'Country': 'New Zealand', 'Festival_Section_of_Competition': 'NZ Web Fest, Best Animation/Puppetry Series'}, {'Date': 'November 2025', 'Country': 'China', 'Festival_Section_of_Competition': 'Snow Wolf Cup (Jilian Animation Institute)'}]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>In a cosmic contest to design life on a new planet, a visionary Evolution Manager and his sidekick face overwhelming odds in a battle of creation.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Soul Shift – a visually stunning and delightfully wacky animated series by Christian Franz Schmidt – follows Evolution Managers shaping life across the universe. When Dew Blue and Sunny-Yellow enter a cosmic contest, it spirals into a wild battle that tests not only their strategy, but their friendship too.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>['The Zilla family has a picnic, 2019', 'A perfect day, 2017', "The most beautiful children's songs - web series, 2016", 'Durchfallmann - The rescue parachute, 2015', 'Rosi Romance, 2015', 'Durchfallmann - The chain carousel is out of control, 2014', 'A swan has a plan, 2013', 'Santa dares to go nuclear, 2013', 'Invageddon - web series, 2012', 'The claustro toad, 2011', 'Egg Nappers, 2011', 'The Christmas tree socialization project, 2010', 'Rome, 2006', 'The diarrhea man, 2005']</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>soul_shift.html</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Soul Shift</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Soul Shift</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>German, English</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>11 May 2025</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>00:10:05</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>10 episodes, each approx. 10 minutes</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>['animation', 'sci-fi', 'comedy', 'adventure']</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>comics</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>evolution, universe, cosmic, fantasy</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>general audience</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>Christian Franz Schmidt</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Christian Franz Schmidt</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>Christian Franz Schmidt</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>Thomas Mehlhorn</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>Christian Franz Schmidt studied animation at HFF Konrad Wolf Potsdam-Babelsberg. He was a pre-selection juror for the Stuttgart International Festival of Animated Film in 2013. From 2012–2019, he headed animation at a major media agency and has been working as a freelancer since 2012.</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>2D computer</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>4k</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+      <c r="AZ20" t="inlineStr"/>
+      <c r="BA20" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="BB20" t="inlineStr"/>
+      <c r="BC20" t="inlineStr">
+        <is>
+          <t>1.78 (16:9)</t>
+        </is>
+      </c>
+      <c r="BD20" t="inlineStr"/>
+      <c r="BE20" t="inlineStr">
+        <is>
+          <t>Stereo (2.0, L+R)</t>
+        </is>
+      </c>
+      <c r="BF20" t="inlineStr"/>
+      <c r="BG20" t="inlineStr">
+        <is>
+          <t>Colour</t>
+        </is>
+      </c>
+      <c r="BH20" t="inlineStr"/>
+      <c r="BI20" t="inlineStr">
+        <is>
+          <t>Thomas Schneider-Trumpp, Johann Frank, Wolfgang Heidrich</t>
+        </is>
+      </c>
+      <c r="BJ20" t="inlineStr"/>
+      <c r="BK20" t="inlineStr"/>
+      <c r="BL20" t="inlineStr"/>
+      <c r="BM20" t="inlineStr"/>
+      <c r="BN20" t="inlineStr">
+        <is>
+          <t>Playlist 4You GmbH</t>
+        </is>
+      </c>
+      <c r="BO20" t="inlineStr"/>
+      <c r="BP20" t="inlineStr"/>
+      <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
+      <c r="BS20" t="inlineStr">
+        <is>
+          <t>Hessischer Rundfunk</t>
+        </is>
+      </c>
+      <c r="BT20" t="inlineStr"/>
+      <c r="BU20" t="inlineStr"/>
+      <c r="BV20" t="inlineStr"/>
+      <c r="BW20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>[{'Date': 'May 2025', 'Country': 'Czech Republic', 'Name_of_place_of_premiere': 'Anifilm (Czech and world premiere)'}]</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[{'Date': 'May 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'Anifilm'}, {'Date': 'June 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'Marienbad International Film Festival'}, {'Date': 'August 2025', 'Country': 'Israel', 'Name_of_Festival': 'ANIMIX'}, {'Date': 'September 2025', 'Country': 'Ukraine', 'Name_of_Festival': 'Kyiv International Short Film Festival'}, {'Date': 'October 2025', 'Country': 'Australia', 'Name_of_Festival': 'Byron Bay International Film Festival'}, {'Date': 'November 2025', 'Country': 'Poland', 'Name_of_Festival': 'International Young Audience Film Festival Ale Kino!'}, {'Date': 'October 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'Future Gate Sci-fi Film Festival'}]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': '', 'Festival_Section_of_Competition': ''}]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>A giant beetroot goes on a rampage in this wild Slavic kaiju tale mixing live action, stop-motion, and 2D animation.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Inspired by the traditional Slavic folktale “The Enormous Turnip,” a beetroot grows so huge that no one can pull it from the ground. When a local crane operator is hired to do the job, the giant vegetable turns violent and destructive. As chaos unfolds, an army is mobilized to stop it,but maybe there’s another way to appease this monstrous force.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Beetroot is a collaboration between two directors from FAMU and UMPRUM, blending distinct authorial styles. Inspired by the classic Czech tale The Big Beetroot, we reimagine the beet as an uncontrollable force, merging fairy tale with the Japanese Kaiju genre. As the beet grows, so do the problems—nature's power takes monstrous form.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>['Jáchym Štulíř: Eternia, 2021 / Si ako slniečko (You are like a sun), 2020', 'David Šourek: Blíže vedle sebe (Closer Led), 2023 / Šedobílý (Greyish White), 2022 / Chandra, 2022']</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>the_beetroot.html</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Řepa</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>The Beetroot</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Czech</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>5 January 2025</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>00:12:56</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>['animation', 'fairytale', 'absurd']</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>beetroot, fairytale, kaiju, enviroment</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>general audience</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>Jáchym Štulíř, David Šourek</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Jáchym Štulíř, David Šourek</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>David Šourek</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>Ondřej Plecháč</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>Juras Karaka</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>Jáchym Štulíř</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>Juras Karaka</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>Jáchym Štulíř graduated in Animation from UMPRUM in Prague. In 2022 he participated in the series Wunderbaum, where he animated the episode "Václav" (E06). His other directing credits include the short films Eternia (2021) and Si ako slniečko (2020).
+David Šourek is a student at the Centre for Audiovisual Studies at FAMU. In his practice he is increasingly focusing on analogue video, digital post-production and analogue film. During his studies he has made three short experimental films.</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>2D computer</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>mixing live action</t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AU21" t="inlineStr"/>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>DCP</t>
+        </is>
+      </c>
+      <c r="AW21" t="inlineStr"/>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>2K</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+      <c r="AZ21" t="inlineStr"/>
+      <c r="BA21" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="BB21" t="inlineStr"/>
+      <c r="BC21" t="inlineStr">
+        <is>
+          <t>1.33 (4:3)</t>
+        </is>
+      </c>
+      <c r="BD21" t="inlineStr"/>
+      <c r="BE21" t="inlineStr">
+        <is>
+          <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
+        </is>
+      </c>
+      <c r="BF21" t="inlineStr"/>
+      <c r="BG21" t="inlineStr">
+        <is>
+          <t>Colour</t>
+        </is>
+      </c>
+      <c r="BH21" t="inlineStr"/>
+      <c r="BI21" t="inlineStr">
+        <is>
+          <t>FAMU</t>
+        </is>
+      </c>
+      <c r="BJ21" t="inlineStr">
+        <is>
+          <t>Smetanovo nábřeží 2</t>
+        </is>
+      </c>
+      <c r="BK21" t="inlineStr">
+        <is>
+          <t>116 65 Praha 1</t>
+        </is>
+      </c>
+      <c r="BL21" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="BM21" t="inlineStr">
+        <is>
+          <t>famu.cz</t>
+        </is>
+      </c>
+      <c r="BN21" t="inlineStr">
+        <is>
+          <t>UMPRUM - Michaela Režová</t>
+        </is>
+      </c>
+      <c r="BO21" t="inlineStr">
+        <is>
+          <t>nám. J. Palacha 80/3</t>
+        </is>
+      </c>
+      <c r="BP21" t="inlineStr">
+        <is>
+          <t>116 93 Prague 1</t>
+        </is>
+      </c>
+      <c r="BQ21" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>umprum.cz</t>
+        </is>
+      </c>
+      <c r="BS21" t="inlineStr">
+        <is>
+          <t>Altum Frames - Hynek Spurný</t>
+        </is>
+      </c>
+      <c r="BT21" t="inlineStr">
+        <is>
+          <t>Záhořanského 1944/4</t>
+        </is>
+      </c>
+      <c r="BU21" t="inlineStr">
+        <is>
+          <t>120 00 Prague 2</t>
+        </is>
+      </c>
+      <c r="BV21" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="BW21" t="inlineStr">
+        <is>
+          <t>altumframes.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': '', 'Name_of_place_of_premiere': ''}]</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>[{'Date': '06/2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'International Film Festival for Children and Youth - ZLÍN'}]</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>[{'Date': '2024', 'Country': 'USA', 'Festival_Section_of_Competition': 'Student Academy Awards - Golden Medal'}]</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>On New Year's Eve 1944, two Sudeten men—one a widower, the other an SS officer—confront a shared past in a snowbound cottage cut off from the world.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>On New Year’s Eve 1944, widower Petr Bernat and SS officer Konrad Neumann meet in a remote cottage during a snowstorm. United only by their Sudeten origins, their conversation shifts from trivial topics to painful truths, leading to a fateful night for both men.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>the_compatriot.html</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Krajan</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>The Compatriot</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Czech, German</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>English, Czech</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>01.07. 2023</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>00:24:34</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>['drama', 'historical', 'war']</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>war, Sudetenland, nazi, winter</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>15+</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>youth</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>Viktor Horák, Pavel Sýkora</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Petr Pelech, Pavel Sýkora</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Pavel Sýkora</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>Lukáš Skalník</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>Yurii Fenynets</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>Jakub Zajíc</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>['Jiří Štěpnička, Pavel Batěk, Martin Hlubocký']</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AU22" t="inlineStr"/>
+      <c r="AV22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr"/>
+      <c r="AX22" t="inlineStr"/>
+      <c r="AY22" t="inlineStr"/>
+      <c r="AZ22" t="inlineStr"/>
+      <c r="BA22" t="inlineStr"/>
+      <c r="BB22" t="inlineStr"/>
+      <c r="BC22" t="inlineStr">
+        <is>
+          <t>1.78 (16:9)</t>
+        </is>
+      </c>
+      <c r="BD22" t="inlineStr"/>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
+        </is>
+      </c>
+      <c r="BF22" t="inlineStr"/>
+      <c r="BG22" t="inlineStr">
+        <is>
+          <t>Colour</t>
+        </is>
+      </c>
+      <c r="BH22" t="inlineStr"/>
+      <c r="BI22" t="inlineStr">
+        <is>
+          <t>FAMO</t>
+        </is>
+      </c>
+      <c r="BJ22" t="inlineStr">
+        <is>
+          <t>Lipová alej 2068</t>
+        </is>
+      </c>
+      <c r="BK22" t="inlineStr">
+        <is>
+          <t>397 01 Písek</t>
+        </is>
+      </c>
+      <c r="BL22" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="BM22" t="inlineStr">
+        <is>
+          <t>filmovka.cz</t>
+        </is>
+      </c>
+      <c r="BN22" t="inlineStr"/>
+      <c r="BO22" t="inlineStr"/>
+      <c r="BP22" t="inlineStr"/>
+      <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
+      <c r="BS22" t="inlineStr"/>
+      <c r="BT22" t="inlineStr"/>
+      <c r="BU22" t="inlineStr"/>
+      <c r="BV22" t="inlineStr"/>
+      <c r="BW22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>[{'Date': '03/2023', 'Country': 'Ireland', 'Name_of_place_of_premiere': 'Cinemagic International Film Festival for Young People'}]</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[{'Date': '10/2023', 'Country': 'Sweden', 'Name_of_Festival': 'Uppsala International Short Film Festival'}, {'Date': '03/2023', 'Country': 'Belgium', 'Name_of_Festival': 'Anima - the Brussels Animation Film Festival'}, {'Date': '03/2024', 'Country': 'Sweden', 'Name_of_Festival': 'BUFF Malmö Film Festival'}, {'Date': '03/2025', 'Country': 'Canada', 'Name_of_Festival': 'Montreal International Children’s Film Festival (FIFEM)'}]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': '', 'Festival_Section_of_Competition': ''}]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Can hedgehog swim?</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Slightly moralising pun, filmed with pleasant exaggeration and a sense of animation shorthand. A child's imagination knows no bounds, and anyone who gets too carried away, whether drawing or just looking at a picture, can end up getting really wet. A hedgehog like that doesn't seem to be a very good swimmer, but he's all the more powerful.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>['Misophonia Orchestra (2022)', 'Kuku [Cuckoo](2020)', 'Medvědění [Bearing] (2018)', 'Závodní horečka [Racing Fever] (2017)', 'Nezbeda (2015)']</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>the_hedgehog.html</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Ježek</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>The Hedgehog</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>no dialogue</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>19/03/2023</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>00:01:30</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>['animation', 'children', 'comedy']</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>hedgehog, swimming pool, child's imagination</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>3+</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>family</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>Daniela Hýbnerová</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Daniela Hýbnerová</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>Ondřej Vomočil</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>Daniela Hýbnerová graduated from the Animation Department at FAMU in Prague. Her short animated film The One About the Shirt won 2nd place in the international round of the Nespresso Talents 2020 competition. Daniela is a fan of Formula 1 racing, film music and the world of Harry Potter.</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>2D computer</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AU23" t="inlineStr"/>
+      <c r="AV23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr"/>
+      <c r="AX23" t="inlineStr"/>
+      <c r="AY23" t="inlineStr"/>
+      <c r="AZ23" t="inlineStr"/>
+      <c r="BA23" t="inlineStr"/>
+      <c r="BB23" t="inlineStr"/>
+      <c r="BC23" t="inlineStr"/>
+      <c r="BD23" t="inlineStr"/>
+      <c r="BE23" t="inlineStr"/>
+      <c r="BF23" t="inlineStr"/>
+      <c r="BG23" t="inlineStr">
+        <is>
+          <t>Colour</t>
+        </is>
+      </c>
+      <c r="BH23" t="inlineStr"/>
+      <c r="BI23" t="inlineStr">
+        <is>
+          <t>Daniela Hýbnerová</t>
+        </is>
+      </c>
+      <c r="BJ23" t="inlineStr"/>
+      <c r="BK23" t="inlineStr"/>
+      <c r="BL23" t="inlineStr"/>
+      <c r="BM23" t="inlineStr"/>
+      <c r="BN23" t="inlineStr"/>
+      <c r="BO23" t="inlineStr"/>
+      <c r="BP23" t="inlineStr"/>
+      <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
+      <c r="BS23" t="inlineStr"/>
+      <c r="BT23" t="inlineStr"/>
+      <c r="BU23" t="inlineStr"/>
+      <c r="BV23" t="inlineStr"/>
+      <c r="BW23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': '', 'Name_of_place_of_premiere': ''}]</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': '', 'Name_of_Festival': ''}]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': '', 'Festival_Section_of_Competition': ''}]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>A boy who has lost his grandmother learns that all the dead go to heaven, so he decides to become a pilot to go find her and bring her back home.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>At his grandmother’s funeral, a four-year-old boy is told the dead become angels in heaven. Hoping to retrieve her, he becomes a pilot and searches in a small plane. Finding her on a cloud, he ties her to bring her home, but she refuses and a guardian angel rescues her.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>The film explores grief through a child’s eyes, where magical explanations shape early ideas of death. Inspired by my own childhood memories, it follows the pure logic with which children question loss: if the dead are in the sky, why not go find them? Yet even in a wondrous world, the boy learns he must let his grandmother go. As an adult, he looks back with nostalgic clarity at the way he once saw the world.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>['Good Night, Mr. Ted (2020)']</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>up_in_heaven.html</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Cap al cel</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Up in Heaven</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Catalan</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>English, Spanish</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>15.01.2026</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>00:15:00</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>['animation', 'children', 'fairytale', 'adventure']</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>childhood, family, kid coping with death, heaven, angel, plane, pilot, clouds</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>6+</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>general audience</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>Nicolás Sole</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Estefania Ortiz</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>Irene Albanell</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>Gisela Maestre</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>Beatriz López-Nogales</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>['Carlos Garriga, Edgar Moreno, Alzira Gómez, Borja Ruiz, Yasmina Qiu, Anna Serra, José María Blanco']</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>02.11.1991</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>Nicolás Sole (Santa Fe, 1991) studied Audiovisual Design in Buenos Aires and completed a Master’s in Animation at ECIB. He worked as an animator on Linklater’s Apollo 10½, Trueba &amp; Mariscal’s They Shot the Piano Player, Mariposas Negras, and Hit Monkey. He has finished Cap al cel, now entering distribution, and is developing Rebel·lió a les cases while collaborating on new animation projects.</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>2D computer</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>Blender</t>
+        </is>
+      </c>
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>5:1 and stereo</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AU24" t="inlineStr"/>
+      <c r="AV24" t="inlineStr">
+        <is>
+          <t>DCP</t>
+        </is>
+      </c>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>H264 Mp4</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>4k</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+      <c r="AZ24" t="inlineStr">
+        <is>
+          <t>progressive (DCP, e-cinema, TV)</t>
+        </is>
+      </c>
+      <c r="BA24" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="BB24" t="inlineStr"/>
+      <c r="BC24" t="inlineStr">
+        <is>
+          <t>1.33 (4:3)</t>
+        </is>
+      </c>
+      <c r="BD24" t="inlineStr"/>
+      <c r="BE24" t="inlineStr">
+        <is>
+          <t>Dolby Digital 5.1 (L, C, R, Ls, Rs, LFE)</t>
+        </is>
+      </c>
+      <c r="BF24" t="inlineStr">
+        <is>
+          <t>Stereo 2.0</t>
+        </is>
+      </c>
+      <c r="BG24" t="inlineStr">
+        <is>
+          <t>Colour</t>
+        </is>
+      </c>
+      <c r="BH24" t="inlineStr"/>
+      <c r="BI24" t="inlineStr">
+        <is>
+          <t>Rubén Seca Alberto Regueiro Carles Isern Damián Perea Lezcano</t>
+        </is>
+      </c>
+      <c r="BJ24" t="inlineStr"/>
+      <c r="BK24" t="inlineStr"/>
+      <c r="BL24" t="inlineStr"/>
+      <c r="BM24" t="inlineStr"/>
+      <c r="BN24" t="inlineStr">
+        <is>
+          <t>Shoji Films</t>
+        </is>
+      </c>
+      <c r="BO24" t="inlineStr">
+        <is>
+          <t>Calvet 50, 6º 1ª</t>
+        </is>
+      </c>
+      <c r="BP24" t="inlineStr">
+        <is>
+          <t>08021, Barcelona</t>
+        </is>
+      </c>
+      <c r="BQ24" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>www.shojifilms.com</t>
+        </is>
+      </c>
+      <c r="BS24" t="inlineStr">
+        <is>
+          <t>Amigos Cine Kamikaze Producciones Dosmentes Damián Perea Producciones</t>
+        </is>
+      </c>
+      <c r="BT24" t="inlineStr"/>
+      <c r="BU24" t="inlineStr"/>
+      <c r="BV24" t="inlineStr"/>
+      <c r="BW24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': '', 'Name_of_place_of_premiere': ''}]</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': '', 'Name_of_Festival': ''}]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': '', 'Festival_Section_of_Competition': ''}]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Volklore weaves Czech folklore traditions with fashion’s milestones, tracing seasons in the rhythm of consumerism.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Volklore, an experimental video essay exploring how Czech folklore transforms in the digital age of social networks. Traditions become tools for marketing; you become a brand, your followers a community. YouTuber Vivi guides us through folk customs linking them to key fashion events. But is there authenticity in the age of platform capitalism?</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>I created Volklore out of a personal need to bring Moravian folklore into its contemporary context. The film treats folklore as a living form of cultural expression rather than a relic. It shows how traditions are reshaped by social values and markets. Through a YouTube vlog, the film explores the digital reality of Generation Z, where advertising becomes a new form of folk storytelling. My goal is not to romanticize, but to reveal an online reality that is becoming increasingly common.</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>['Michal Hrůza - Mikádo (2024)', 'EO DE ME (EO DE ME, 2023)', 'Brighter Days - Always fine (2022)', 'Lajfr - Antigona (2022)', 'Vevnitř (Inside, 2020)']</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>volklore.html</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Volklore</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Volklore</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Czech</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>7 January 2026</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>00:15:54</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>['experimental', 'fiction']</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>videoessay, tale</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>digital folklor, folklor, traditions, generation Z, digital platforms, YouTube, identity, fashion, community, social media, vlog, self-brand, influencer, seasons</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>youth</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>Viktorie Štěpánová</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Hermína Perič &amp; Viktorie Štěpánová</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Františka Bakošová, Adam Kácha, Eva Gabrižová</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>Viktorie Štěpánová</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>Jan Licek</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>Viktorie Štěpánová</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>Martin Kožucharov, Tomáš Jiřička</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>['YouTuber Vivi: Monina Nevrlá']</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>15 June 1999</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>Viktorie Štěpánová, Master of Arts graduate from FAMU, is a multidisciplinary artist working at the intersection of illustration, animation, graphic design, and fashion. Her work explores themes of identity, pop culture, and digital platforms. She approaches visual storytelling experimentally, pushing the possibilities of media and technique while subversively engaging with consumerist aesthetics. She is known for her films Vevnitř and EO DE ME—the former nominated for a Student BAFTA. More recently, she has focused on fashion films, bringing all her talents together.</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>HDCAM</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>mixed media</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AU25" t="inlineStr"/>
+      <c r="AV25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr"/>
+      <c r="AX25" t="inlineStr"/>
+      <c r="AY25" t="inlineStr"/>
+      <c r="AZ25" t="inlineStr"/>
+      <c r="BA25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="BB25" t="inlineStr"/>
+      <c r="BC25" t="inlineStr">
+        <is>
+          <t>1.78 (16:9)</t>
+        </is>
+      </c>
+      <c r="BD25" t="inlineStr"/>
+      <c r="BE25" t="inlineStr">
+        <is>
+          <t>Stereo (2.0, L+R)</t>
+        </is>
+      </c>
+      <c r="BF25" t="inlineStr"/>
+      <c r="BG25" t="inlineStr">
+        <is>
+          <t>Colour</t>
+        </is>
+      </c>
+      <c r="BH25" t="inlineStr"/>
+      <c r="BI25" t="inlineStr">
+        <is>
+          <t>FAMU</t>
+        </is>
+      </c>
+      <c r="BJ25" t="inlineStr">
+        <is>
+          <t>Smetanovo nábřeží 2</t>
+        </is>
+      </c>
+      <c r="BK25" t="inlineStr">
+        <is>
+          <t>116 65 Prague</t>
+        </is>
+      </c>
+      <c r="BL25" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="BM25" t="inlineStr">
+        <is>
+          <t>famu.cz</t>
+        </is>
+      </c>
+      <c r="BN25" t="inlineStr"/>
+      <c r="BO25" t="inlineStr"/>
+      <c r="BP25" t="inlineStr"/>
+      <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
+      <c r="BS25" t="inlineStr">
+        <is>
+          <t>Viktorie Štěpánová</t>
+        </is>
+      </c>
+      <c r="BT25" t="inlineStr">
+        <is>
+          <t>Vranov 278</t>
+        </is>
+      </c>
+      <c r="BU25" t="inlineStr">
+        <is>
+          <t>664 32</t>
+        </is>
+      </c>
+      <c r="BV25" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="BW25" t="inlineStr">
+        <is>
+          <t>@iamviktorie</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>[{'Date': 'December 2024', 'Country': 'Czech Republic', 'Name_of_place_of_premiere': 'Anifilm'}]</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>[{'Date': 'October 2024', 'Country': 'Portugal', 'Name_of_Festival': 'Cinanima'}, {'Date': 'December 2024', 'Country': 'Czech Republic', 'Name_of_Festival': 'Anifilm'}, {'Date': 'December 2024', 'Country': 'Slovenia', 'Name_of_Festival': 'Animateka International Animated Film Festival'}, {'Date': 'July 2025', 'Country': 'Poland', 'Name_of_Festival': 'FREEDOM Film Festival'}, {'Date': 'August 2025', 'Country': 'Israel', 'Name_of_Festival': 'ANIMIX - International Animation &amp; Comics Festival'}, {'Date': 'November 2025', 'Country': 'Germany', 'Name_of_Festival': 'Braunschweig International Film Festival'}, {'Date': 'October 2025', 'Country': 'Switzerland', 'Name_of_Festival': 'Festival Animatou Genève'}, {'Date': 'April 2025', 'Country': 'Spain', 'Name_of_Festival': 'Human Rights Film Festival of Donostia, San Sebastian'}, {'Date': 'October 2025', 'Country': 'Norway', 'Name_of_Festival': 'Fredrikstad Animation Festival'}, {'Date': 'November 2025', 'Country': 'Germany', 'Name_of_Festival': 'Wiesbaden International Festival of Animation'}, {'Date': 'October 2025', 'Country': 'Armenia', 'Name_of_Festival': 'ReAnimania Int. Animation Film &amp; Comics Art Festival of Yerevan'}, {'Date': 'May 2025', 'Country': 'Italy', 'Name_of_Festival': 'Stop-eMotion Days in Venice'}, {'Date': 'November 2025', 'Country': 'Spain', 'Name_of_Festival': 'Alcoi international animation festival'}, {'Date': 'June 2025', 'Country': 'Argentina', 'Name_of_Festival': 'Stop Motion Our Fest'}]</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>[{'Date': '', 'Country': '', 'Festival_Section_of_Competition': ''}]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>The film explores waves in nature and life through dramatic moments, human fragments, and flowing movements in sea, grass, and branches.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>This short author film is being created using sand animation, and explores the theme of waves in various forms and contexts. A collage of situations from non-specific places around the globe, and the rhythmical motion and sound of waves occuring naturally in the world around us.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>This short author film, created with sand animation, explores waves in many forms—natural, emotional, social. From sea waves and wind-shaped grass to shock waves, protests, grief, borders crossed, passion, joy, birth and death. This cyclic motion reveals how waves can soothe with calm rhythm or evoke unease, fear and the sense of an unstoppable force.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>waves.html</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Vlny</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Waves</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>without dialogue</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>1 May 2024</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>00:08:00</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>['ani-doc']</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>waves, nature, society</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>Michael Carrington</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Michael Carrington</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>Tomáš Doruška</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>Turgut Mavuk</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>Ahmet Kenan Bilgic</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>Michael Carrington, artist and animator, was born in 1973 in London. He studied in Zlín and teaches animation at FAMU in Prague. He worked at Ealing Studios and as lead animator on Jan Balej’s films. He supervised award-winning shorts Daughter and The Kite.</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>sand/powder</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr">
+        <is>
+          <t>monochromatic underlit sand animation</t>
+        </is>
+      </c>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr"/>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AU26" t="inlineStr"/>
+      <c r="AV26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr"/>
+      <c r="AX26" t="inlineStr"/>
+      <c r="AY26" t="inlineStr"/>
+      <c r="AZ26" t="inlineStr"/>
+      <c r="BA26" t="inlineStr"/>
+      <c r="BB26" t="inlineStr"/>
+      <c r="BC26" t="inlineStr">
+        <is>
+          <t>1.85 ("flat format")</t>
+        </is>
+      </c>
+      <c r="BD26" t="inlineStr"/>
+      <c r="BE26" t="inlineStr">
+        <is>
+          <t>Stereo (2.0, L+R)</t>
+        </is>
+      </c>
+      <c r="BF26" t="inlineStr"/>
+      <c r="BG26" t="inlineStr">
+        <is>
+          <t>Black &amp; White</t>
+        </is>
+      </c>
+      <c r="BH26" t="inlineStr"/>
+      <c r="BI26" t="inlineStr">
+        <is>
+          <t>Michal Bureš</t>
+        </is>
+      </c>
+      <c r="BJ26" t="inlineStr"/>
+      <c r="BK26" t="inlineStr"/>
+      <c r="BL26" t="inlineStr"/>
+      <c r="BM26" t="inlineStr"/>
+      <c r="BN26" t="inlineStr">
+        <is>
+          <t>Automat Svět</t>
+        </is>
+      </c>
+      <c r="BO26" t="inlineStr"/>
+      <c r="BP26" t="inlineStr"/>
+      <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
+      <c r="BS26" t="inlineStr"/>
+      <c r="BT26" t="inlineStr"/>
+      <c r="BU26" t="inlineStr"/>
+      <c r="BV26" t="inlineStr"/>
+      <c r="BW26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>[{'Date': '21/05/2024', 'Country': 'France', 'Name_of_place_of_premiere': 'Cinefondation - Festival De Cannes'}]</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>[{'Date': '06/2024', 'Country': 'France', 'Name_of_Festival': 'Annecy Festival'}, {'Date': '12/2024', 'Country': 'Spain', 'Name_of_Festival': 'ANIMAKOM FEST'}, {'Date': '09/2024', 'Country': 'Germany', 'Name_of_Festival': 'International Film Festival SCHLINGEL'}, {'Date': '10/2024', 'Country': 'Korea', 'Name_of_Festival': 'Bucheon International Animation Festival'}, {'Date': '01/2025', 'Country': 'France', 'Name_of_Festival': 'Festival Premiers Plans'}, {'Date': '09/2025', 'Country': 'Iceland', 'Name_of_Festival': 'Reykjavík International Film Festival'}, {'Date': '02/2025', 'Country': 'USA', 'Name_of_Festival': 'Santa Barbara International Film Festival'}, {'Date': '08/2025', 'Country': 'Italy', 'Name_of_Festival': 'Film Festival della Lessinia'}]</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>[{'Date': '11/2024', 'Country': 'Switzerland', 'Festival_Section_of_Competition': 'Castellinaria Festival del Cinema Giovane - the main prize of the competition Castellincorto, the DANIEL prize'}, {'Date': '10/2024', 'Country': 'Korea', 'Festival_Section_of_Competition': 'Bucheon International Animation Festival - Jury Prize in Student Competition'}, {'Date': '12/2024', 'Country': 'Slovenia', 'Festival_Section_of_Competition': 'Animateka International Animated Film Festival - YOUNG TALENT STUDENT JURY AWARD'}, {'Date': '11/2024', 'Country': 'Argentina', 'Festival_Section_of_Competition': 'BIT BANG Festival - 1st place Award at the International Graduation Film Competition'}, {'Date': '10/2025', 'Country': 'Armenia', 'Festival_Section_of_Competition': 'ReAnimania Int. Animation Film &amp; Comics Art Festival of Yerevan - Best Animated Graduation Film'}, {'Date': '08/2025', 'Country': 'Canada', 'Festival_Section_of_Competition': 'Anim sur le Lac - an honorable mention'}]</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>A Gardener tends a small garden in a field overgrown with weeds. What begins as an innocent encounter turns into a fight for survival.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Amid endless weedy fields, a hidden garden is lovingly tended by the Gardener. When a fierce storm floods it with weed seeds, a quiet encounter turns into a life-and-death battle for the garden’s survival.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>The Gardener tries to defy nature and create her artificial fenced world. She is determined to protect it and preserve it, but the laws of life are stronger than her. She thus develops from not accepting the thistles through hatred, horror and madness to reach humility in the face of life, and reconciliation.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>['2022-2023 – Kafka. In Love (dir. Zane Oborenko) / sand on glass / animator', '2018-2019 – The Crossing (dir. Florence Miailhe) / painting on glass / animator', '2015 – Toro! (dir. Pola Kazak) / ink on paper / director, animator']</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>weeds.html</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Plevel</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Weeds</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Without dialogue</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>07.04.2024</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>00:13:47</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>['animation']</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>garden, fear, chaos, flowers</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>6+</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>Pola Kazak</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Pola Kazak</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Jakub Lojda</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>Alisa Sheli</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>Mirek Šmilauer</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>Pola Kazak</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>Sergej Cheremisinov</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>Since 2004, Pola studied audiovisual production at the Moscow University of Arts and Culture, where she focused on documentary production and photography. In 2010, she moved to the Czech Republic and began studying at the Miroslav Ondříček Film Academy in Písek, first majoring in documentary production, but after the first year she switched to the animation studio. During her studies, she focused on cartoon, 2D and multiplane animation. At the same time, she worked as a graphic artist and draftsman.</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP27" t="inlineStr">
+        <is>
+          <t>painting on glass</t>
+        </is>
+      </c>
+      <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="inlineStr"/>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AU27" t="inlineStr"/>
+      <c r="AV27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr"/>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>2K</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+      <c r="AZ27" t="inlineStr"/>
+      <c r="BA27" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="BB27" t="inlineStr"/>
+      <c r="BC27" t="inlineStr">
+        <is>
+          <t>1.85 ("flat format")</t>
+        </is>
+      </c>
+      <c r="BD27" t="inlineStr"/>
+      <c r="BE27" t="inlineStr"/>
+      <c r="BF27" t="inlineStr">
+        <is>
+          <t>wav 16bit / 48KHz &amp; 5.1mix &amp; EBU R128</t>
+        </is>
+      </c>
+      <c r="BG27" t="inlineStr">
+        <is>
+          <t>Colour</t>
+        </is>
+      </c>
+      <c r="BH27" t="inlineStr"/>
+      <c r="BI27" t="inlineStr">
+        <is>
+          <t>Mária Môťovská, Jiří Pecinovský, Martin Vandas - MAUR FILM</t>
+        </is>
+      </c>
+      <c r="BJ27" t="inlineStr">
+        <is>
+          <t>Revoluční 1403/28</t>
+        </is>
+      </c>
+      <c r="BK27" t="inlineStr">
+        <is>
+          <t>110 00 Prague 1</t>
+        </is>
+      </c>
+      <c r="BL27" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="BM27" t="inlineStr">
+        <is>
+          <t>maurfilm.com</t>
+        </is>
+      </c>
+      <c r="BN27" t="inlineStr"/>
+      <c r="BO27" t="inlineStr"/>
+      <c r="BP27" t="inlineStr"/>
+      <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
+      <c r="BS27" t="inlineStr"/>
+      <c r="BT27" t="inlineStr"/>
+      <c r="BU27" t="inlineStr"/>
+      <c r="BV27" t="inlineStr"/>
+      <c r="BW27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>[{'Date': 'April 2025', 'Country': 'Argentina', 'Name_of_place_of_premiere': 'BAFICI - Buenos Aires International Festival of Independent Cinema'}]</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>[{'Date': 'February 2025', 'Country': 'France', 'Name_of_Festival': 'Festival International du Court Métrage de Clermont-Ferrand'}, {'Date': 'April 2025', 'Country': 'Argentina', 'Name_of_Festival': 'BAFICI - Buenos Aires International Festival of Independent Cinema'}, {'Date': 'July 2025', 'Country': 'Italy', 'Name_of_Festival': 'Giffoni Film Festival'}, {'Date': 'October 2025', 'Country': 'Belgium', 'Name_of_Festival': 'The International Film Festival for young audiences Filem’On'}, {'Date': 'September 2025', 'Country': 'Germany', 'Name_of_Festival': 'International Film Festival SCHLINGEL'}, {'Date': 'June 2025', 'Country': 'Slovak Republic', 'Name_of_Festival': 'Fest ANČA'}, {'Date': 'November 2025', 'Country': 'Poland', 'Name_of_Festival': 'International Young Audience Film Festival Ale Kino!'}, {'Date': 'May 2025', 'Country': 'Czech Republic', 'Name_of_Festival': 'Anifilm'}, {'Date': 'December 2025', 'Country': 'Belgium', 'Name_of_Festival': 'International Kortfilmfestival Leuven'}, {'Date': 'May 2025', 'Country': 'Norway', 'Name_of_Festival': 'Kristiansand International Children’s Film Festival'}, {'Date': 'August 2025', 'Country': 'Israel', 'Name_of_Festival': 'ANIMIX - International Animation &amp; Comics Festival'}, {'Date': 'August 2025', 'Country': 'Canada', 'Name_of_Festival': 'Anim sur le Lac'}, {'Date': 'November 2025', 'Country': 'Italy', 'Name_of_Festival': 'Reggio Film Festival'}]</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>[{'Date': '2025', 'Country': 'USA', 'Festival_Section_of_Competition': 'The 52nd Student Academy Award (Student OSCAR), Finalist'}, {'Date': 'September 2025', 'Country': 'Switzerland', 'Festival_Section_of_Competition': 'Fantoche International Animation Film Festival, Young Audience Award in Kids Film Competition'}, {'Date': '2025', 'Country': '', 'Festival_Section_of_Competition': 'ECFA, Finalist for Best European Children’s Short Film'}, {'Date': 'June 2025', 'Country': 'Czech Republic', 'Festival_Section_of_Competition': 'International Film Festival for Children and Youth, ZLÍN, Children’s Jury Award for Best Short Animation for Children'}, {'Date': 'November 2025', 'Country': 'France', 'Festival_Section_of_Competition': 'Brest European Short Film Festival, SCHOOL PRICE in category 4-7 years old'}, {'Date': 'October 2025', 'Country': 'France', 'Festival_Section_of_Competition': 'Cineopen Festival, Young Audience Prize at the competition'}]</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>A perfectionist ilustrator has to face her own mistakes when she accidentally makes an ink blot and creates Wolfie, a little wolf with an inky nose.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Mother spends her days drawing animals that spring to life, each framed picture growing into a forest. But one day she creates Wolfie, a wolf with an inky nose who makes a mess of her perfect world. Can she restore balance, or will Wolfie’s “flaw” turn out to be a surprising gift?</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Ink, illustration, cute little animals, those are all things that inspire me and fill me with joy. In this short film I tried using them to tell a story. A story about childlike play, chaos, perfectionism, about the creator’s lot and the acceptance of flaws. Most importantly, it is the story of two characters who find a way to accept each other in spite of their differences, and thanks to this, are able to set themselves free.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>['Deniska umřela (Dede is Dead), 2023', 'ŠMIK! (CUT!), 2023', 'Věž (The Tower), 2021', 'Wolfeater, 2021', 'Haraburdí (Jumble), 2021']</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>wolfie.html</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Vlček</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Wolfie</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>without dialogue</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>7 January 2025</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>00:13:12</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>['animation', 'children', 'family']</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>play, animals, acceptance, balance, chaos, difference, childhood, motherhood</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>3+</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>general audience</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>Philippe Kastner</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Philippe Kastner</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>Prokop Prčík</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>Dávid Procházka</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>Philippe Kastner</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>Philippe Kastner</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>['Adéla Majzlíková: Mother', 'Patrick Biela: Wolfie']</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>26 May 2001</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>Philippe Kastner, a graduate of the Department of Animation at FAMU, is best known in the world of student animation for his short film Dede is Dead (Deniska umřela, 2023) that has been screened at Berlinale and many other prestigious film festivals. Apart from that, he has directed multiple other short films such as The Tower (Věž, 2021) as well as a music video for his song Wolfeater (2021).</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP28" t="inlineStr">
+        <is>
+          <t>2D computer</t>
+        </is>
+      </c>
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr">
+        <is>
+          <t>Adobe Premiere Pro</t>
+        </is>
+      </c>
+      <c r="AS28" t="inlineStr">
+        <is>
+          <t>Pro Tools</t>
+        </is>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AU28" t="inlineStr"/>
+      <c r="AV28" t="inlineStr">
+        <is>
+          <t>DCP</t>
+        </is>
+      </c>
+      <c r="AW28" t="inlineStr"/>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>HD: 1920X1080</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+      <c r="AZ28" t="inlineStr"/>
+      <c r="BA28" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="BB28" t="inlineStr"/>
+      <c r="BC28" t="inlineStr">
+        <is>
+          <t>1.78 (16:9)</t>
+        </is>
+      </c>
+      <c r="BD28" t="inlineStr"/>
+      <c r="BE28" t="inlineStr">
+        <is>
+          <t>Dolby Digital 7.1 (5.1 + Lss, Rss)</t>
+        </is>
+      </c>
+      <c r="BF28" t="inlineStr">
+        <is>
+          <t>5.1 (L, R, C, LFE, Ls, Rs); stereo</t>
+        </is>
+      </c>
+      <c r="BG28" t="inlineStr">
+        <is>
+          <t>Colour + Black &amp; White</t>
+        </is>
+      </c>
+      <c r="BH28" t="inlineStr"/>
+      <c r="BI28" t="inlineStr">
+        <is>
+          <t>FAMU</t>
+        </is>
+      </c>
+      <c r="BJ28" t="inlineStr">
+        <is>
+          <t>Smetanovo nábřeží 2</t>
+        </is>
+      </c>
+      <c r="BK28" t="inlineStr">
+        <is>
+          <t>116 65 Prague</t>
+        </is>
+      </c>
+      <c r="BL28" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="BM28" t="inlineStr">
+        <is>
+          <t>famu.cz</t>
+        </is>
+      </c>
+      <c r="BN28" t="inlineStr"/>
+      <c r="BO28" t="inlineStr"/>
+      <c r="BP28" t="inlineStr"/>
+      <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
+      <c r="BS28" t="inlineStr"/>
+      <c r="BT28" t="inlineStr"/>
+      <c r="BU28" t="inlineStr"/>
+      <c r="BV28" t="inlineStr"/>
+      <c r="BW28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>[{'Date': '06/2024', 'Country': 'Croatia', 'Name_of_place_of_premiere': 'Animafest Zagreb'}]</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>[{'Date': '07/2024', 'Country': 'Italy', 'Name_of_Festival': 'ShorTS - International Film Festival'}, {'Date': '10/2024', 'Country': 'Hungary', 'Name_of_Festival': 'Primanima World Festival of First Animations'}, {'Date': '11/2024', 'Country': 'Switzerland', 'Name_of_Festival': 'Internationale Kurzfilmtage Winterthur'}, {'Date': '03/2025', 'Country': 'Sweden', 'Name_of_Festival': 'BUFF Malmö Film Festival'}]</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>[{'Date': '08/2025', 'Country': 'Mexico', 'Festival_Section_of_Competition': "La Matatena - International Children's Film Festival (…and not so Children) - Special Mention"}]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Alice and her grandpa uncovers their shared interest in butterflies, uniting their distinct perspectives - through a video game and the real world.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Alice's summer at her grandpa's takes an unexpected turn. Obsessed with a butterfly-catching video game, she's oblivious to the world around, as well as her entomologist grandpa's interest in protecting endangered butterflies. In a powerful thunderstorm, her wonder for reality awakens, and their bond deepens.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>I myself grew up in a time when digital techonology influenced me at a young age. In the film I wanted to project a subjective view of the world of the heroine, who prefers the colourful reality of a video game to the actual world Our film can inspire kids to look up from their screens and encourage them to seek adventure outside of their comfort zone, with their friends.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>['Až vyrostu (When I grow up), 2021']</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>world_i_live_in.html</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Svět, ve kterém žiji</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>World I live In</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>without dialogue</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>14.04.2024</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>00:07:16</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>['animation', 'educational', 'children']</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>family, environment, kids, videogame</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>family</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>Ester Kasalová</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Ester Kasalová</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>Lucie Hecht</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>Tomáš Jiřička</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>Ester Kasalová, Eliška Kerbachová, Viktorie Ramiková</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>Pavel Duda</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>Ester Kasalová is a FAMU Master's student specializing in 2D animation and family storytelling. Her work often dvelves into the themes of intergenerational relationships and exploration of reality.</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP29" t="inlineStr">
+        <is>
+          <t>2D computer</t>
+        </is>
+      </c>
+      <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="inlineStr"/>
+      <c r="AS29" t="inlineStr"/>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AU29" t="inlineStr"/>
+      <c r="AV29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr"/>
+      <c r="AX29" t="inlineStr"/>
+      <c r="AY29" t="inlineStr"/>
+      <c r="AZ29" t="inlineStr"/>
+      <c r="BA29" t="inlineStr"/>
+      <c r="BB29" t="inlineStr"/>
+      <c r="BC29" t="inlineStr">
+        <is>
+          <t>1.78 (16:9)</t>
+        </is>
+      </c>
+      <c r="BD29" t="inlineStr"/>
+      <c r="BE29" t="inlineStr"/>
+      <c r="BF29" t="inlineStr"/>
+      <c r="BG29" t="inlineStr">
+        <is>
+          <t>Colour</t>
+        </is>
+      </c>
+      <c r="BH29" t="inlineStr"/>
+      <c r="BI29" t="inlineStr">
+        <is>
+          <t>Hynek Spurný - Altum Frames</t>
+        </is>
+      </c>
+      <c r="BJ29" t="inlineStr">
+        <is>
+          <t>Zahoranskeho 1944/4</t>
+        </is>
+      </c>
+      <c r="BK29" t="inlineStr">
+        <is>
+          <t>120 00 Prague 2</t>
+        </is>
+      </c>
+      <c r="BL29" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="BM29" t="inlineStr"/>
+      <c r="BN29" t="inlineStr">
         <is>
           <t>Tomáš Šimon - FAMU - Film and TV School of the Academy of Performing Arts in Prague</t>
         </is>
       </c>
-      <c r="BO14" t="inlineStr">
+      <c r="BO29" t="inlineStr">
         <is>
           <t>Smetanovo nábřeží 2</t>
         </is>
       </c>
-      <c r="BP14" t="inlineStr">
+      <c r="BP29" t="inlineStr">
         <is>
           <t>116 65 Prague 1</t>
         </is>
       </c>
-      <c r="BQ14" t="inlineStr">
+      <c r="BQ29" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="BR14" t="inlineStr">
+      <c r="BR29" t="inlineStr">
         <is>
           <t>www.famu.cz</t>
         </is>
       </c>
-      <c r="BS14" t="inlineStr">
-        <is>
-          <t>Hynek Spurný - Altum Frames</t>
-        </is>
-      </c>
-      <c r="BT14" t="inlineStr">
-        <is>
-          <t>Zahoranskeho 1944/4</t>
-        </is>
-      </c>
-      <c r="BU14" t="inlineStr">
-        <is>
-          <t>120 00 Prague 2</t>
-        </is>
-      </c>
-      <c r="BV14" t="inlineStr">
+      <c r="BS29" t="inlineStr"/>
+      <c r="BT29" t="inlineStr"/>
+      <c r="BU29" t="inlineStr"/>
+      <c r="BV29" t="inlineStr"/>
+      <c r="BW29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>[{'Date': '05/2024', 'Country': 'Czech Republic', 'Name_of_place_of_premiere': 'Liberec, Anifilm'}]</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>[{'Date': '07/2024', 'Country': 'Italy', 'Name_of_Festival': 'Giffoni'}, {'Date': '10/2024', 'Country': 'Netherlands', 'Name_of_Festival': 'Cinekid'}, {'Date': '03/2025', 'Country': 'Sweden', 'Name_of_Festival': 'BUFF Malmö Film Festival'}, {'Date': '05/2025', 'Country': 'Germany', 'Name_of_Festival': 'Stuttgart International Festival of Animated Film (ITFS)'}, {'Date': '10/2025', 'Country': 'Brazil', 'Name_of_Festival': 'ANIMAGE - International Animation Festival of Pernambuco'}]</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>[{'Date': '06/2024', 'Country': 'Portugal', 'Festival_Section_of_Competition': 'FEST - New Directors/New Films Festival; \nWINNER - Best film of FESTinha Sub 10 Comp'}, {'Date': '06/2024', 'Country': 'Czech Republic', 'Festival_Section_of_Competition': 'International Film Festival for Children and Youth - \nZlín, Hermína Týrlová award winner'}]</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Tiny bark beetle lives in the forest. A fire breaks out, she gets separated from her family. Lost and alone, she has to face the world on her own.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>A small bark beetle girl lives a peaceful life in the forest, until a fire destroys her home. Getting separated from her family, she finds refuge in a human school, discovering a new talent, writing. Reunited with her family, she becomes the first bark beetle teacher.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>I found Miss Holasová's book when I first moved to Prague and fell in love with the story and art immediately. Few years later, when I had to come up with an idea for a bachelor's film, my mind travelled back to this simple small book. From the beginning I knew I wanted the film to be silent, with the exception of a few limited written words, since it is a film about writing after all.
+It is a film about the importance of education and overcoming the hardships of life.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>['2021 - Azyl (Sanctuary) - short animated film']</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>writing_home.html</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>O lýkožroutce</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Writing Home</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Without dialogue</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="BW14" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>19.05.2024</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>00:12:04</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>['animation', 'children', 'fairytale']</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>communication, home, forest</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>3+</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>Eva Matejovičová</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Eva Matejovičová</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>Savva Dolomanov, Marguerite G. Farag</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>Juras Karaka</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>Eva Matejovičová</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>Juras Karaka</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>Eva Matejovičová graduated from the Václav Hollar High School and Film and Television Faculty of the Academy of Performing Arts in Prague (FAMU). Now she is in the second year of the Master's program at the Department of Animation at FAMU. Her film Sanctuary (2021) won the Best Short Slovak animated film at the AnčaFest 2021 film festival. While at school, she does animation and art commissions, as well as working with animals in non-profit organizations.</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP30" t="inlineStr">
+        <is>
+          <t>2D computer</t>
+        </is>
+      </c>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AU30" t="inlineStr"/>
+      <c r="AV30" t="inlineStr">
+        <is>
+          <t>DCP</t>
+        </is>
+      </c>
+      <c r="AW30" t="inlineStr"/>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>HD: 1920X1080</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+      <c r="AZ30" t="inlineStr"/>
+      <c r="BA30" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="BB30" t="inlineStr"/>
+      <c r="BC30" t="inlineStr">
+        <is>
+          <t>1.78 (16:9)</t>
+        </is>
+      </c>
+      <c r="BD30" t="inlineStr"/>
+      <c r="BE30" t="inlineStr"/>
+      <c r="BF30" t="inlineStr"/>
+      <c r="BG30" t="inlineStr">
+        <is>
+          <t>Colour</t>
+        </is>
+      </c>
+      <c r="BH30" t="inlineStr"/>
+      <c r="BI30" t="inlineStr">
+        <is>
+          <t>Jiří Sádek, Kristýna Žďárská - Cofilm</t>
+        </is>
+      </c>
+      <c r="BJ30" t="inlineStr"/>
+      <c r="BK30" t="inlineStr"/>
+      <c r="BL30" t="inlineStr"/>
+      <c r="BM30" t="inlineStr"/>
+      <c r="BN30" t="inlineStr"/>
+      <c r="BO30" t="inlineStr"/>
+      <c r="BP30" t="inlineStr"/>
+      <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
+      <c r="BS30" t="inlineStr">
+        <is>
+          <t>Tomáš Šimon, Studio FAMU</t>
+        </is>
+      </c>
+      <c r="BT30" t="inlineStr"/>
+      <c r="BU30" t="inlineStr"/>
+      <c r="BV30" t="inlineStr"/>
+      <c r="BW30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
